--- a/Face Recognition/rsrc/validation.xlsx
+++ b/Face Recognition/rsrc/validation.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">validation!$A$1:$P$211</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -720,7 +720,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1278,9 +1278,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1670,7 +1670,7 @@
         <v>3024.87</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>IF(B2=0,D2,"")</f>
+        <f t="shared" ref="E2:E65" si="0">IF(B2=0,D2,"")</f>
         <v/>
       </c>
       <c r="F2" s="2">
@@ -1691,7 +1691,7 @@
         <v/>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K65" si="0">IF(G2=1,I2,"")</f>
+        <f t="shared" ref="K2:K65" si="1">IF(G2=1,I2,"")</f>
         <v>1177.6199999999999</v>
       </c>
       <c r="L2" s="6">
@@ -1726,11 +1726,11 @@
         <v>2678.83</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>IF(B3=0,D3,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="1">IF(B3=1,D3,"")</f>
+        <f t="shared" ref="F3:F66" si="2">IF(B3=1,D3,"")</f>
         <v>2678.83</v>
       </c>
       <c r="G3" s="6">
@@ -1743,11 +1743,11 @@
         <v>495.315</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" si="2">IF(G3=0,I3,"")</f>
+        <f t="shared" ref="J3:J66" si="3">IF(G3=0,I3,"")</f>
         <v/>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>495.315</v>
       </c>
       <c r="L3" s="6">
@@ -1760,11 +1760,11 @@
         <v>104.471</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O66" si="3">IF(L3=0,N3,"")</f>
+        <f t="shared" ref="O3:O66" si="4">IF(L3=0,N3,"")</f>
         <v/>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P66" si="4">IF(L3=1,N3,"")</f>
+        <f t="shared" ref="P3:P66" si="5">IF(L3=1,N3,"")</f>
         <v>104.471</v>
       </c>
     </row>
@@ -1782,11 +1782,11 @@
         <v>3172.96</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>IF(B4=0,D4,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3172.96</v>
       </c>
       <c r="G4" s="6">
@@ -1799,11 +1799,11 @@
         <v>1775.07</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1775.07</v>
       </c>
       <c r="L4" s="6">
@@ -1816,11 +1816,11 @@
         <v>96.457400000000007</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.457400000000007</v>
       </c>
       <c r="P4" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1838,11 +1838,11 @@
         <v>2316.0500000000002</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>IF(B5=0,D5,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2316.0500000000002</v>
       </c>
       <c r="G5" s="6">
@@ -1855,11 +1855,11 @@
         <v>915.71299999999997</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>915.71299999999997</v>
       </c>
       <c r="L5" s="6">
@@ -1872,11 +1872,11 @@
         <v>65.942300000000003</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.942300000000003</v>
       </c>
     </row>
@@ -1894,11 +1894,11 @@
         <v>3790.94</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>IF(B6=0,D6,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3790.94</v>
       </c>
       <c r="G6" s="6">
@@ -1911,11 +1911,11 @@
         <v>918.12699999999995</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>918.12699999999995</v>
       </c>
       <c r="L6" s="6">
@@ -1928,11 +1928,11 @@
         <v>61.344999999999999</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.344999999999999</v>
       </c>
     </row>
@@ -1950,11 +1950,11 @@
         <v>2198.92</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>IF(B7=0,D7,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2198.92</v>
       </c>
       <c r="G7" s="6">
@@ -1967,11 +1967,11 @@
         <v>1182.31</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1182.31</v>
       </c>
       <c r="L7" s="6">
@@ -1984,11 +1984,11 @@
         <v>55.789900000000003</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.789900000000003</v>
       </c>
     </row>
@@ -2006,11 +2006,11 @@
         <v>3650.43</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>IF(B8=0,D8,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3650.43</v>
       </c>
       <c r="G8" s="6">
@@ -2023,11 +2023,11 @@
         <v>1125.5999999999999</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1125.5999999999999</v>
       </c>
       <c r="L8" s="6">
@@ -2040,11 +2040,11 @@
         <v>69.465699999999998</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69.465699999999998</v>
       </c>
     </row>
@@ -2062,11 +2062,11 @@
         <v>2459.14</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>IF(B9=0,D9,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2459.14</v>
       </c>
       <c r="G9" s="6">
@@ -2079,11 +2079,11 @@
         <v>1000.66</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000.66</v>
       </c>
       <c r="L9" s="6">
@@ -2096,11 +2096,11 @@
         <v>64.521600000000007</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.521600000000007</v>
       </c>
     </row>
@@ -2118,11 +2118,11 @@
         <v>3108.29</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>IF(B10=0,D10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3108.29</v>
       </c>
       <c r="G10" s="6">
@@ -2135,11 +2135,11 @@
         <v>1011.5</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1011.5</v>
       </c>
       <c r="L10" s="6">
@@ -2152,11 +2152,11 @@
         <v>66.287800000000004</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.287800000000004</v>
       </c>
     </row>
@@ -2174,11 +2174,11 @@
         <v>2416.71</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>IF(B11=0,D11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2416.71</v>
       </c>
       <c r="G11" s="6">
@@ -2191,11 +2191,11 @@
         <v>1092.4000000000001</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1092.4000000000001</v>
       </c>
       <c r="L11" s="6">
@@ -2208,11 +2208,11 @@
         <v>56.04</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.04</v>
       </c>
     </row>
@@ -2230,11 +2230,11 @@
         <v>2836.81</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>IF(B12=0,D12,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2836.81</v>
       </c>
       <c r="G12" s="6">
@@ -2247,11 +2247,11 @@
         <v>1636.04</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1636.04</v>
       </c>
       <c r="L12" s="6">
@@ -2264,11 +2264,11 @@
         <v>88.7119</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88.7119</v>
       </c>
       <c r="P12" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2286,11 +2286,11 @@
         <v>2458.1999999999998</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f>IF(B13=0,D13,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2458.1999999999998</v>
       </c>
       <c r="G13" s="6">
@@ -2303,11 +2303,11 @@
         <v>1524.05</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1524.05</v>
       </c>
       <c r="L13" s="6">
@@ -2320,11 +2320,11 @@
         <v>74.122100000000003</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74.122100000000003</v>
       </c>
       <c r="P13" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2342,11 +2342,11 @@
         <v>3176.45</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f>IF(B14=0,D14,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3176.45</v>
       </c>
       <c r="G14" s="6">
@@ -2359,11 +2359,11 @@
         <v>1445.4</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1445.4</v>
       </c>
       <c r="L14" s="6">
@@ -2376,11 +2376,11 @@
         <v>94.140699999999995</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94.140699999999995</v>
       </c>
       <c r="P14" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2398,11 +2398,11 @@
         <v>2258.04</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>IF(B15=0,D15,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2258.04</v>
       </c>
       <c r="G15" s="6">
@@ -2415,11 +2415,11 @@
         <v>1136.47</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1136.47</v>
       </c>
       <c r="L15" s="6">
@@ -2432,11 +2432,11 @@
         <v>57.468800000000002</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.468800000000002</v>
       </c>
     </row>
@@ -2454,11 +2454,11 @@
         <v>3336.67</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>IF(B16=0,D16,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3336.67</v>
       </c>
       <c r="G16" s="6">
@@ -2471,11 +2471,11 @@
         <v>1822.15</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1822.15</v>
       </c>
       <c r="L16" s="6">
@@ -2488,11 +2488,11 @@
         <v>101.047</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101.047</v>
       </c>
       <c r="P16" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2510,11 +2510,11 @@
         <v>3311.02</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f>IF(B17=0,D17,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3311.02</v>
       </c>
       <c r="G17" s="6">
@@ -2527,11 +2527,11 @@
         <v>1411.09</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1411.09</v>
       </c>
       <c r="L17" s="6">
@@ -2544,11 +2544,11 @@
         <v>71.308199999999999</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.308199999999999</v>
       </c>
     </row>
@@ -2566,11 +2566,11 @@
         <v>3934.37</v>
       </c>
       <c r="E18" s="2">
-        <f>IF(B18=0,D18,"")</f>
+        <f t="shared" si="0"/>
         <v>3934.37</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G18" s="6">
@@ -2583,11 +2583,11 @@
         <v>1252.7</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1252.7</v>
       </c>
       <c r="L18" s="6">
@@ -2600,11 +2600,11 @@
         <v>85.993899999999996</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85.993899999999996</v>
       </c>
       <c r="P18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2622,11 +2622,11 @@
         <v>2066.11</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f>IF(B19=0,D19,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2066.11</v>
       </c>
       <c r="G19" s="6">
@@ -2639,11 +2639,11 @@
         <v>1066.18</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1066.18</v>
       </c>
       <c r="L19" s="6">
@@ -2656,11 +2656,11 @@
         <v>63.922600000000003</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.922600000000003</v>
       </c>
     </row>
@@ -2678,11 +2678,11 @@
         <v>3407.29</v>
       </c>
       <c r="E20" s="2">
-        <f>IF(B20=0,D20,"")</f>
+        <f t="shared" si="0"/>
         <v>3407.29</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G20" s="6">
@@ -2695,11 +2695,11 @@
         <v>1096.99</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1096.99</v>
       </c>
       <c r="L20" s="6">
@@ -2712,11 +2712,11 @@
         <v>80.623199999999997</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.623199999999997</v>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
         <v>1650.06</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f>IF(B21=0,D21,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1650.06</v>
       </c>
       <c r="G21" s="6">
@@ -2751,11 +2751,11 @@
         <v>1416.64</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1416.64</v>
       </c>
       <c r="L21" s="6">
@@ -2768,11 +2768,11 @@
         <v>48.631500000000003</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.631500000000003</v>
       </c>
     </row>
@@ -2790,11 +2790,11 @@
         <v>3936.75</v>
       </c>
       <c r="E22" s="2">
-        <f>IF(B22=0,D22,"")</f>
+        <f t="shared" si="0"/>
         <v>3936.75</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G22" s="6">
@@ -2807,11 +2807,11 @@
         <v>886.822</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>886.822</v>
       </c>
       <c r="L22" s="6">
@@ -2824,11 +2824,11 @@
         <v>85.232600000000005</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85.232600000000005</v>
       </c>
     </row>
@@ -2846,11 +2846,11 @@
         <v>3038.67</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f>IF(B23=0,D23,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3038.67</v>
       </c>
       <c r="G23" s="6">
@@ -2863,11 +2863,11 @@
         <v>1137.81</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1137.81</v>
       </c>
       <c r="L23" s="6">
@@ -2880,11 +2880,11 @@
         <v>65.072900000000004</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.072900000000004</v>
       </c>
     </row>
@@ -2902,11 +2902,11 @@
         <v>478.34699999999998</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>IF(B24=0,D24,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>478.34699999999998</v>
       </c>
       <c r="G24" s="6">
@@ -2919,11 +2919,11 @@
         <v>288.959</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>288.959</v>
       </c>
       <c r="L24" s="6">
@@ -2936,11 +2936,11 @@
         <v>30.467400000000001</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.467400000000001</v>
       </c>
     </row>
@@ -2958,11 +2958,11 @@
         <v>1945.39</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f>IF(B25=0,D25,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1945.39</v>
       </c>
       <c r="G25" s="6">
@@ -2975,11 +2975,11 @@
         <v>1212.8</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1212.8</v>
       </c>
       <c r="L25" s="6">
@@ -2992,11 +2992,11 @@
         <v>45.287799999999997</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.287799999999997</v>
       </c>
     </row>
@@ -3014,11 +3014,11 @@
         <v>2768.47</v>
       </c>
       <c r="E26" s="2">
-        <f>IF(B26=0,D26,"")</f>
+        <f t="shared" si="0"/>
         <v>2768.47</v>
       </c>
       <c r="F26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="6">
@@ -3031,11 +3031,11 @@
         <v>1034.1500000000001</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1034.1500000000001</v>
       </c>
       <c r="L26" s="6">
@@ -3048,11 +3048,11 @@
         <v>83.901600000000002</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.901600000000002</v>
       </c>
     </row>
@@ -3070,11 +3070,11 @@
         <v>2214.2399999999998</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f>IF(B27=0,D27,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2214.2399999999998</v>
       </c>
       <c r="G27" s="6">
@@ -3087,11 +3087,11 @@
         <v>876.84299999999996</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>876.84299999999996</v>
       </c>
       <c r="L27" s="6">
@@ -3104,11 +3104,11 @@
         <v>47.201599999999999</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.201599999999999</v>
       </c>
     </row>
@@ -3126,11 +3126,11 @@
         <v>2426.0300000000002</v>
       </c>
       <c r="E28" s="2">
-        <f>IF(B28=0,D28,"")</f>
+        <f t="shared" si="0"/>
         <v>2426.0300000000002</v>
       </c>
       <c r="F28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G28" s="6">
@@ -3143,11 +3143,11 @@
         <v>1317.23</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1317.23</v>
       </c>
       <c r="K28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L28" s="6">
@@ -3160,11 +3160,11 @@
         <v>61.256700000000002</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.256700000000002</v>
       </c>
     </row>
@@ -3182,11 +3182,11 @@
         <v>1303.92</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f>IF(B29=0,D29,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1303.92</v>
       </c>
       <c r="G29" s="6">
@@ -3199,11 +3199,11 @@
         <v>1373.12</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1373.12</v>
       </c>
       <c r="L29" s="6">
@@ -3216,11 +3216,11 @@
         <v>43.938499999999998</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.938499999999998</v>
       </c>
     </row>
@@ -3238,11 +3238,11 @@
         <v>2726.1</v>
       </c>
       <c r="E30" s="2">
-        <f>IF(B30=0,D30,"")</f>
+        <f t="shared" si="0"/>
         <v>2726.1</v>
       </c>
       <c r="F30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G30" s="6">
@@ -3255,11 +3255,11 @@
         <v>1216.8499999999999</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1216.8499999999999</v>
       </c>
       <c r="K30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L30" s="6">
@@ -3272,11 +3272,11 @@
         <v>70.854799999999997</v>
       </c>
       <c r="O30" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.854799999999997</v>
       </c>
     </row>
@@ -3294,11 +3294,11 @@
         <v>2325.21</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f>IF(B31=0,D31,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2325.21</v>
       </c>
       <c r="G31" s="6">
@@ -3311,11 +3311,11 @@
         <v>679.74300000000005</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>679.74300000000005</v>
       </c>
       <c r="L31" s="6">
@@ -3328,11 +3328,11 @@
         <v>60.747500000000002</v>
       </c>
       <c r="O31" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.747500000000002</v>
       </c>
     </row>
@@ -3350,11 +3350,11 @@
         <v>3263.52</v>
       </c>
       <c r="E32" s="2">
-        <f>IF(B32=0,D32,"")</f>
+        <f t="shared" si="0"/>
         <v>3263.52</v>
       </c>
       <c r="F32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G32" s="6">
@@ -3367,11 +3367,11 @@
         <v>380.50200000000001</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>380.50200000000001</v>
       </c>
       <c r="L32" s="6">
@@ -3384,11 +3384,11 @@
         <v>56.5745</v>
       </c>
       <c r="O32" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5745</v>
       </c>
     </row>
@@ -3406,11 +3406,11 @@
         <v>1193.01</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f>IF(B33=0,D33,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1193.01</v>
       </c>
       <c r="G33" s="6">
@@ -3423,11 +3423,11 @@
         <v>1314.4</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1314.4</v>
       </c>
       <c r="L33" s="6">
@@ -3440,11 +3440,11 @@
         <v>36.891800000000003</v>
       </c>
       <c r="O33" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.891800000000003</v>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
         <v>3009.34</v>
       </c>
       <c r="E34" s="2">
-        <f>IF(B34=0,D34,"")</f>
+        <f t="shared" si="0"/>
         <v>3009.34</v>
       </c>
       <c r="F34" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G34" s="6">
@@ -3479,11 +3479,11 @@
         <v>1121.93</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1121.93</v>
       </c>
       <c r="K34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L34" s="6">
@@ -3496,11 +3496,11 @@
         <v>66.3262</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.3262</v>
       </c>
     </row>
@@ -3518,11 +3518,11 @@
         <v>2139.9</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f>IF(B35=0,D35,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2139.9</v>
       </c>
       <c r="G35" s="6">
@@ -3535,11 +3535,11 @@
         <v>956.62699999999995</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>956.62699999999995</v>
       </c>
       <c r="L35" s="6">
@@ -3552,11 +3552,11 @@
         <v>51.506900000000002</v>
       </c>
       <c r="O35" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.506900000000002</v>
       </c>
     </row>
@@ -3574,11 +3574,11 @@
         <v>1957.81</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f>IF(B36=0,D36,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1957.81</v>
       </c>
       <c r="G36" s="6">
@@ -3591,11 +3591,11 @@
         <v>838.721</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>838.721</v>
       </c>
       <c r="L36" s="6">
@@ -3608,11 +3608,11 @@
         <v>43.458500000000001</v>
       </c>
       <c r="O36" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.458500000000001</v>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>1694.92</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f>IF(B37=0,D37,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1694.92</v>
       </c>
       <c r="G37" s="6">
@@ -3647,11 +3647,11 @@
         <v>607.346</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>607.346</v>
       </c>
       <c r="L37" s="6">
@@ -3664,11 +3664,11 @@
         <v>47.154499999999999</v>
       </c>
       <c r="O37" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.154499999999999</v>
       </c>
     </row>
@@ -3686,11 +3686,11 @@
         <v>2663.58</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f>IF(B38=0,D38,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2663.58</v>
       </c>
       <c r="G38" s="6">
@@ -3703,11 +3703,11 @@
         <v>548.04899999999998</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>548.04899999999998</v>
       </c>
       <c r="L38" s="6">
@@ -3720,11 +3720,11 @@
         <v>57.670099999999998</v>
       </c>
       <c r="O38" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.670099999999998</v>
       </c>
     </row>
@@ -3742,11 +3742,11 @@
         <v>1482.95</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f>IF(B39=0,D39,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1482.95</v>
       </c>
       <c r="G39" s="6">
@@ -3759,11 +3759,11 @@
         <v>515.97799999999995</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>515.97799999999995</v>
       </c>
       <c r="L39" s="6">
@@ -3776,11 +3776,11 @@
         <v>51.307299999999998</v>
       </c>
       <c r="O39" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.307299999999998</v>
       </c>
     </row>
@@ -3798,11 +3798,11 @@
         <v>3371.05</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f>IF(B40=0,D40,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3371.05</v>
       </c>
       <c r="G40" s="6">
@@ -3815,11 +3815,11 @@
         <v>858.34400000000005</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>858.34400000000005</v>
       </c>
       <c r="L40" s="6">
@@ -3832,11 +3832,11 @@
         <v>76.164500000000004</v>
       </c>
       <c r="O40" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76.164500000000004</v>
       </c>
     </row>
@@ -3854,11 +3854,11 @@
         <v>1972.34</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f>IF(B41=0,D41,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1972.34</v>
       </c>
       <c r="G41" s="6">
@@ -3871,11 +3871,11 @@
         <v>561.15300000000002</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>561.15300000000002</v>
       </c>
       <c r="L41" s="6">
@@ -3888,11 +3888,11 @@
         <v>49.945399999999999</v>
       </c>
       <c r="O41" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.945399999999999</v>
       </c>
     </row>
@@ -3910,11 +3910,11 @@
         <v>1784.52</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f>IF(B42=0,D42,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1784.52</v>
       </c>
       <c r="G42" s="6">
@@ -3927,11 +3927,11 @@
         <v>1533.67</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1533.67</v>
       </c>
       <c r="L42" s="6">
@@ -3944,11 +3944,11 @@
         <v>67.579400000000007</v>
       </c>
       <c r="O42" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.579400000000007</v>
       </c>
     </row>
@@ -3966,11 +3966,11 @@
         <v>2092.7600000000002</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f>IF(B43=0,D43,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2092.7600000000002</v>
       </c>
       <c r="G43" s="6">
@@ -3983,11 +3983,11 @@
         <v>674.56600000000003</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>674.56600000000003</v>
       </c>
       <c r="L43" s="6">
@@ -4000,11 +4000,11 @@
         <v>46.787199999999999</v>
       </c>
       <c r="O43" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.787199999999999</v>
       </c>
     </row>
@@ -4022,11 +4022,11 @@
         <v>3045.36</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f>IF(B44=0,D44,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3045.36</v>
       </c>
       <c r="G44" s="6">
@@ -4039,11 +4039,11 @@
         <v>1108.4000000000001</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1108.4000000000001</v>
       </c>
       <c r="L44" s="6">
@@ -4056,11 +4056,11 @@
         <v>67.851399999999998</v>
       </c>
       <c r="O44" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.851399999999998</v>
       </c>
     </row>
@@ -4078,11 +4078,11 @@
         <v>1632.06</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f>IF(B45=0,D45,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1632.06</v>
       </c>
       <c r="G45" s="6">
@@ -4095,11 +4095,11 @@
         <v>833.673</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>833.673</v>
       </c>
       <c r="L45" s="6">
@@ -4112,11 +4112,11 @@
         <v>42.688600000000001</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.688600000000001</v>
       </c>
     </row>
@@ -4134,11 +4134,11 @@
         <v>763.9</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f>IF(B46=0,D46,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>763.9</v>
       </c>
       <c r="G46" s="6">
@@ -4151,11 +4151,11 @@
         <v>1419.65</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1419.65</v>
       </c>
       <c r="L46" s="6">
@@ -4168,11 +4168,11 @@
         <v>37.091200000000001</v>
       </c>
       <c r="O46" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.091200000000001</v>
       </c>
     </row>
@@ -4190,11 +4190,11 @@
         <v>1342.95</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f>IF(B47=0,D47,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1342.95</v>
       </c>
       <c r="G47" s="6">
@@ -4207,11 +4207,11 @@
         <v>573.92899999999997</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>573.92899999999997</v>
       </c>
       <c r="L47" s="6">
@@ -4224,11 +4224,11 @@
         <v>42.392800000000001</v>
       </c>
       <c r="O47" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.392800000000001</v>
       </c>
     </row>
@@ -4246,11 +4246,11 @@
         <v>1532.93</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f>IF(B48=0,D48,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1532.93</v>
       </c>
       <c r="G48" s="6">
@@ -4263,11 +4263,11 @@
         <v>1413.28</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1413.28</v>
       </c>
       <c r="L48" s="6">
@@ -4280,11 +4280,11 @@
         <v>48.001899999999999</v>
       </c>
       <c r="O48" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.001899999999999</v>
       </c>
     </row>
@@ -4302,11 +4302,11 @@
         <v>1135.53</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f>IF(B49=0,D49,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1135.53</v>
       </c>
       <c r="G49" s="6">
@@ -4319,11 +4319,11 @@
         <v>1261.25</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1261.25</v>
       </c>
       <c r="L49" s="6">
@@ -4336,11 +4336,11 @@
         <v>47.8949</v>
       </c>
       <c r="O49" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.8949</v>
       </c>
     </row>
@@ -4358,11 +4358,11 @@
         <v>956.85299999999995</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f>IF(B50=0,D50,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>956.85299999999995</v>
       </c>
       <c r="G50" s="6">
@@ -4375,11 +4375,11 @@
         <v>272.238</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>272.238</v>
       </c>
       <c r="L50" s="6">
@@ -4392,11 +4392,11 @@
         <v>53.245100000000001</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.245100000000001</v>
       </c>
     </row>
@@ -4414,11 +4414,11 @@
         <v>2259.87</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f>IF(B51=0,D51,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2259.87</v>
       </c>
       <c r="G51" s="6">
@@ -4431,11 +4431,11 @@
         <v>1702.39</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1702.39</v>
       </c>
       <c r="L51" s="6">
@@ -4448,11 +4448,11 @@
         <v>65.072900000000004</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65.072900000000004</v>
       </c>
       <c r="P51" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4470,11 +4470,11 @@
         <v>860.15099999999995</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f>IF(B52=0,D52,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>860.15099999999995</v>
       </c>
       <c r="G52" s="6">
@@ -4487,11 +4487,11 @@
         <v>376.22500000000002</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>376.22500000000002</v>
       </c>
       <c r="L52" s="6">
@@ -4504,11 +4504,11 @@
         <v>32.924399999999999</v>
       </c>
       <c r="O52" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.924399999999999</v>
       </c>
     </row>
@@ -4526,11 +4526,11 @@
         <v>2108.42</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f>IF(B53=0,D53,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2108.42</v>
       </c>
       <c r="G53" s="6">
@@ -4543,11 +4543,11 @@
         <v>1202.74</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1202.74</v>
       </c>
       <c r="L53" s="6">
@@ -4560,11 +4560,11 @@
         <v>61.322899999999997</v>
       </c>
       <c r="O53" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.322899999999997</v>
       </c>
     </row>
@@ -4582,11 +4582,11 @@
         <v>1358.9</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f>IF(B54=0,D54,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1358.9</v>
       </c>
       <c r="G54" s="6">
@@ -4599,11 +4599,11 @@
         <v>420.16300000000001</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420.16300000000001</v>
       </c>
       <c r="L54" s="6">
@@ -4616,11 +4616,11 @@
         <v>36.118899999999996</v>
       </c>
       <c r="O54" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.118899999999996</v>
       </c>
     </row>
@@ -4638,11 +4638,11 @@
         <v>436.47500000000002</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f>IF(B55=0,D55,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>436.47500000000002</v>
       </c>
       <c r="G55" s="6">
@@ -4655,11 +4655,11 @@
         <v>344.26900000000001</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>344.26900000000001</v>
       </c>
       <c r="L55" s="6">
@@ -4672,11 +4672,11 @@
         <v>30.968</v>
       </c>
       <c r="O55" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.968</v>
       </c>
     </row>
@@ -4694,11 +4694,11 @@
         <v>602.68200000000002</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f>IF(B56=0,D56,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>602.68200000000002</v>
       </c>
       <c r="G56" s="6">
@@ -4711,11 +4711,11 @@
         <v>382.411</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>382.411</v>
       </c>
       <c r="L56" s="6">
@@ -4728,11 +4728,11 @@
         <v>33.9679</v>
       </c>
       <c r="O56" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.9679</v>
       </c>
     </row>
@@ -4750,11 +4750,11 @@
         <v>1015.95</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f>IF(B57=0,D57,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1015.95</v>
       </c>
       <c r="G57" s="6">
@@ -4767,11 +4767,11 @@
         <v>651.80499999999995</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>651.80499999999995</v>
       </c>
       <c r="L57" s="6">
@@ -4784,11 +4784,11 @@
         <v>34.717700000000001</v>
       </c>
       <c r="O57" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34.717700000000001</v>
       </c>
     </row>
@@ -4806,11 +4806,11 @@
         <v>3100.67</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f>IF(B58=0,D58,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3100.67</v>
       </c>
       <c r="G58" s="6">
@@ -4823,11 +4823,11 @@
         <v>1444.27</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1444.27</v>
       </c>
       <c r="L58" s="6">
@@ -4840,11 +4840,11 @@
         <v>62.270899999999997</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.270899999999997</v>
       </c>
     </row>
@@ -4862,11 +4862,11 @@
         <v>1141.6300000000001</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f>IF(B59=0,D59,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1141.6300000000001</v>
       </c>
       <c r="G59" s="6">
@@ -4879,11 +4879,11 @@
         <v>698.37599999999998</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>698.37599999999998</v>
       </c>
       <c r="L59" s="6">
@@ -4896,11 +4896,11 @@
         <v>48.927</v>
       </c>
       <c r="O59" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.927</v>
       </c>
     </row>
@@ -4918,11 +4918,11 @@
         <v>1257.21</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f>IF(B60=0,D60,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1257.21</v>
       </c>
       <c r="G60" s="6">
@@ -4935,11 +4935,11 @@
         <v>561.68499999999995</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>561.68499999999995</v>
       </c>
       <c r="L60" s="6">
@@ -4952,11 +4952,11 @@
         <v>48.374400000000001</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.374400000000001</v>
       </c>
     </row>
@@ -4974,11 +4974,11 @@
         <v>1152.8699999999999</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f>IF(B61=0,D61,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1152.8699999999999</v>
       </c>
       <c r="G61" s="6">
@@ -4991,11 +4991,11 @@
         <v>504.78100000000001</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>504.78100000000001</v>
       </c>
       <c r="L61" s="6">
@@ -5008,11 +5008,11 @@
         <v>38.0608</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.0608</v>
       </c>
     </row>
@@ -5030,11 +5030,11 @@
         <v>2118.94</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f>IF(B62=0,D62,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2118.94</v>
       </c>
       <c r="G62" s="6">
@@ -5047,11 +5047,11 @@
         <v>691.22199999999998</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>691.22199999999998</v>
       </c>
       <c r="L62" s="6">
@@ -5064,11 +5064,11 @@
         <v>45.5871</v>
       </c>
       <c r="O62" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.5871</v>
       </c>
     </row>
@@ -5086,11 +5086,11 @@
         <v>2066.3200000000002</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f>IF(B63=0,D63,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2066.3200000000002</v>
       </c>
       <c r="G63" s="6">
@@ -5103,11 +5103,11 @@
         <v>751.51900000000001</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>751.51900000000001</v>
       </c>
       <c r="L63" s="6">
@@ -5120,11 +5120,11 @@
         <v>48.5929</v>
       </c>
       <c r="O63" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.5929</v>
       </c>
     </row>
@@ -5142,11 +5142,11 @@
         <v>2479.61</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f>IF(B64=0,D64,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2479.61</v>
       </c>
       <c r="G64" s="6">
@@ -5159,11 +5159,11 @@
         <v>589.45600000000002</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>589.45600000000002</v>
       </c>
       <c r="L64" s="6">
@@ -5176,11 +5176,11 @@
         <v>42.8384</v>
       </c>
       <c r="O64" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.8384</v>
       </c>
     </row>
@@ -5198,11 +5198,11 @@
         <v>3024.41</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f>IF(B65=0,D65,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3024.41</v>
       </c>
       <c r="G65" s="6">
@@ -5215,11 +5215,11 @@
         <v>885.62599999999998</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>885.62599999999998</v>
       </c>
       <c r="L65" s="6">
@@ -5232,11 +5232,11 @@
         <v>50.054900000000004</v>
       </c>
       <c r="O65" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.054900000000004</v>
       </c>
     </row>
@@ -5254,11 +5254,11 @@
         <v>2627.7</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f>IF(B66=0,D66,"")</f>
+        <f t="shared" ref="E66:E129" si="6">IF(B66=0,D66,"")</f>
         <v/>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2627.7</v>
       </c>
       <c r="G66" s="6">
@@ -5271,11 +5271,11 @@
         <v>484.22699999999998</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K66" s="2">
-        <f t="shared" ref="K66:K129" si="5">IF(G66=1,I66,"")</f>
+        <f t="shared" ref="K66:K129" si="7">IF(G66=1,I66,"")</f>
         <v>484.22699999999998</v>
       </c>
       <c r="L66" s="6">
@@ -5288,11 +5288,11 @@
         <v>49.093499999999999</v>
       </c>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.093499999999999</v>
       </c>
     </row>
@@ -5310,11 +5310,11 @@
         <v>2709.27</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f>IF(B67=0,D67,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F130" si="6">IF(B67=1,D67,"")</f>
+        <f t="shared" ref="F67:F130" si="8">IF(B67=1,D67,"")</f>
         <v>2709.27</v>
       </c>
       <c r="G67" s="6">
@@ -5327,11 +5327,11 @@
         <v>650.92200000000003</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J130" si="7">IF(G67=0,I67,"")</f>
+        <f t="shared" ref="J67:J130" si="9">IF(G67=0,I67,"")</f>
         <v/>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>650.92200000000003</v>
       </c>
       <c r="L67" s="6">
@@ -5344,11 +5344,11 @@
         <v>55.613799999999998</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O130" si="8">IF(L67=0,N67,"")</f>
+        <f t="shared" ref="O67:O130" si="10">IF(L67=0,N67,"")</f>
         <v/>
       </c>
       <c r="P67" s="2">
-        <f t="shared" ref="P67:P130" si="9">IF(L67=1,N67,"")</f>
+        <f t="shared" ref="P67:P130" si="11">IF(L67=1,N67,"")</f>
         <v>55.613799999999998</v>
       </c>
     </row>
@@ -5366,11 +5366,11 @@
         <v>1907.71</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f>IF(B68=0,D68,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1907.71</v>
       </c>
       <c r="G68" s="6">
@@ -5383,11 +5383,11 @@
         <v>514.29600000000005</v>
       </c>
       <c r="J68" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K68" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K68" s="2">
-        <f t="shared" si="5"/>
         <v>514.29600000000005</v>
       </c>
       <c r="L68" s="6">
@@ -5400,11 +5400,11 @@
         <v>48.0655</v>
       </c>
       <c r="O68" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.0655</v>
       </c>
     </row>
@@ -5422,11 +5422,11 @@
         <v>3053.15</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f>IF(B69=0,D69,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3053.15</v>
       </c>
       <c r="G69" s="6">
@@ -5439,11 +5439,11 @@
         <v>1323.46</v>
       </c>
       <c r="J69" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K69" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K69" s="2">
-        <f t="shared" si="5"/>
         <v>1323.46</v>
       </c>
       <c r="L69" s="6">
@@ -5456,11 +5456,11 @@
         <v>60.7866</v>
       </c>
       <c r="O69" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P69" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>60.7866</v>
       </c>
     </row>
@@ -5478,11 +5478,11 @@
         <v>1441.88</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f>IF(B70=0,D70,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1441.88</v>
       </c>
       <c r="G70" s="6">
@@ -5495,11 +5495,11 @@
         <v>971.75699999999995</v>
       </c>
       <c r="J70" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K70" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" si="5"/>
         <v>971.75699999999995</v>
       </c>
       <c r="L70" s="6">
@@ -5512,11 +5512,11 @@
         <v>55.595999999999997</v>
       </c>
       <c r="O70" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P70" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>55.595999999999997</v>
       </c>
     </row>
@@ -5534,11 +5534,11 @@
         <v>1669.26</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f>IF(B71=0,D71,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1669.26</v>
       </c>
       <c r="G71" s="6">
@@ -5551,11 +5551,11 @@
         <v>198.59800000000001</v>
       </c>
       <c r="J71" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K71" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K71" s="2">
-        <f t="shared" si="5"/>
         <v>198.59800000000001</v>
       </c>
       <c r="L71" s="6">
@@ -5568,11 +5568,11 @@
         <v>43.542900000000003</v>
       </c>
       <c r="O71" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>43.542900000000003</v>
       </c>
     </row>
@@ -5590,11 +5590,11 @@
         <v>1375.48</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f>IF(B72=0,D72,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1375.48</v>
       </c>
       <c r="G72" s="6">
@@ -5607,11 +5607,11 @@
         <v>337.88799999999998</v>
       </c>
       <c r="J72" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K72" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="5"/>
         <v>337.88799999999998</v>
       </c>
       <c r="L72" s="6">
@@ -5624,11 +5624,11 @@
         <v>41.129199999999997</v>
       </c>
       <c r="O72" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P72" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41.129199999999997</v>
       </c>
     </row>
@@ -5646,11 +5646,11 @@
         <v>1558.77</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f>IF(B73=0,D73,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1558.77</v>
       </c>
       <c r="G73" s="6">
@@ -5663,11 +5663,11 @@
         <v>200.79499999999999</v>
       </c>
       <c r="J73" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K73" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K73" s="2">
-        <f t="shared" si="5"/>
         <v>200.79499999999999</v>
       </c>
       <c r="L73" s="6">
@@ -5680,11 +5680,11 @@
         <v>42.167000000000002</v>
       </c>
       <c r="O73" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P73" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42.167000000000002</v>
       </c>
     </row>
@@ -5702,11 +5702,11 @@
         <v>1532.48</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f>IF(B74=0,D74,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1532.48</v>
       </c>
       <c r="G74" s="6">
@@ -5719,11 +5719,11 @@
         <v>216.87100000000001</v>
       </c>
       <c r="J74" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K74" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K74" s="2">
-        <f t="shared" si="5"/>
         <v>216.87100000000001</v>
       </c>
       <c r="L74" s="6">
@@ -5736,11 +5736,11 @@
         <v>54.368899999999996</v>
       </c>
       <c r="O74" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P74" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>54.368899999999996</v>
       </c>
     </row>
@@ -5758,11 +5758,11 @@
         <v>1968.55</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f>IF(B75=0,D75,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1968.55</v>
       </c>
       <c r="G75" s="6">
@@ -5775,11 +5775,11 @@
         <v>539.11199999999997</v>
       </c>
       <c r="J75" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K75" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" si="5"/>
         <v>539.11199999999997</v>
       </c>
       <c r="L75" s="6">
@@ -5792,11 +5792,11 @@
         <v>54.682299999999998</v>
       </c>
       <c r="O75" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P75" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>54.682299999999998</v>
       </c>
     </row>
@@ -5814,11 +5814,11 @@
         <v>2013.57</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f>IF(B76=0,D76,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2013.57</v>
       </c>
       <c r="G76" s="6">
@@ -5831,11 +5831,11 @@
         <v>520.10500000000002</v>
       </c>
       <c r="J76" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K76" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K76" s="2">
-        <f t="shared" si="5"/>
         <v>520.10500000000002</v>
       </c>
       <c r="L76" s="6">
@@ -5848,11 +5848,11 @@
         <v>52.704799999999999</v>
       </c>
       <c r="O76" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P76" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>52.704799999999999</v>
       </c>
     </row>
@@ -5870,11 +5870,11 @@
         <v>2340.71</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f>IF(B77=0,D77,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2340.71</v>
       </c>
       <c r="G77" s="6">
@@ -5887,11 +5887,11 @@
         <v>610.70600000000002</v>
       </c>
       <c r="J77" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K77" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K77" s="2">
-        <f t="shared" si="5"/>
         <v>610.70600000000002</v>
       </c>
       <c r="L77" s="6">
@@ -5904,11 +5904,11 @@
         <v>45.779899999999998</v>
       </c>
       <c r="O77" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P77" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45.779899999999998</v>
       </c>
     </row>
@@ -5926,11 +5926,11 @@
         <v>2116.94</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f>IF(B78=0,D78,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2116.94</v>
       </c>
       <c r="G78" s="6">
@@ -5943,11 +5943,11 @@
         <v>430.81299999999999</v>
       </c>
       <c r="J78" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K78" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="5"/>
         <v>430.81299999999999</v>
       </c>
       <c r="L78" s="6">
@@ -5960,11 +5960,11 @@
         <v>48.298400000000001</v>
       </c>
       <c r="O78" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.298400000000001</v>
       </c>
     </row>
@@ -5982,11 +5982,11 @@
         <v>1373.49</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f>IF(B79=0,D79,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1373.49</v>
       </c>
       <c r="G79" s="6">
@@ -5999,11 +5999,11 @@
         <v>245.435</v>
       </c>
       <c r="J79" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K79" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K79" s="2">
-        <f t="shared" si="5"/>
         <v>245.435</v>
       </c>
       <c r="L79" s="6">
@@ -6016,11 +6016,11 @@
         <v>42.855499999999999</v>
       </c>
       <c r="O79" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42.855499999999999</v>
       </c>
     </row>
@@ -6038,11 +6038,11 @@
         <v>2213.09</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f>IF(B80=0,D80,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2213.09</v>
       </c>
       <c r="G80" s="6">
@@ -6055,11 +6055,11 @@
         <v>773.06500000000005</v>
       </c>
       <c r="J80" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K80" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K80" s="2">
-        <f t="shared" si="5"/>
         <v>773.06500000000005</v>
       </c>
       <c r="L80" s="6">
@@ -6072,11 +6072,11 @@
         <v>68.483699999999999</v>
       </c>
       <c r="O80" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P80" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>68.483699999999999</v>
       </c>
     </row>
@@ -6094,11 +6094,11 @@
         <v>962.37</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f>IF(B81=0,D81,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>962.37</v>
       </c>
       <c r="G81" s="6">
@@ -6111,11 +6111,11 @@
         <v>625.81299999999999</v>
       </c>
       <c r="J81" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K81" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K81" s="2">
-        <f t="shared" si="5"/>
         <v>625.81299999999999</v>
       </c>
       <c r="L81" s="6">
@@ -6128,11 +6128,11 @@
         <v>45.066099999999999</v>
       </c>
       <c r="O81" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P81" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45.066099999999999</v>
       </c>
     </row>
@@ -6150,11 +6150,11 @@
         <v>1309.6400000000001</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f>IF(B82=0,D82,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1309.6400000000001</v>
       </c>
       <c r="G82" s="6">
@@ -6167,11 +6167,11 @@
         <v>247.726</v>
       </c>
       <c r="J82" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K82" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K82" s="2">
-        <f t="shared" si="5"/>
         <v>247.726</v>
       </c>
       <c r="L82" s="6">
@@ -6184,11 +6184,11 @@
         <v>47.592100000000002</v>
       </c>
       <c r="O82" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P82" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>47.592100000000002</v>
       </c>
     </row>
@@ -6206,11 +6206,11 @@
         <v>3149.43</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f>IF(B83=0,D83,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3149.43</v>
       </c>
       <c r="G83" s="6">
@@ -6223,11 +6223,11 @@
         <v>949.74300000000005</v>
       </c>
       <c r="J83" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K83" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K83" s="2">
-        <f t="shared" si="5"/>
         <v>949.74300000000005</v>
       </c>
       <c r="L83" s="6">
@@ -6240,11 +6240,11 @@
         <v>51.1357</v>
       </c>
       <c r="O83" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P83" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51.1357</v>
       </c>
     </row>
@@ -6262,11 +6262,11 @@
         <v>2324.15</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f>IF(B84=0,D84,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2324.15</v>
       </c>
       <c r="G84" s="6">
@@ -6279,11 +6279,11 @@
         <v>957.93899999999996</v>
       </c>
       <c r="J84" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K84" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K84" s="2">
-        <f t="shared" si="5"/>
         <v>957.93899999999996</v>
       </c>
       <c r="L84" s="6">
@@ -6296,11 +6296,11 @@
         <v>67.767600000000002</v>
       </c>
       <c r="O84" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P84" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>67.767600000000002</v>
       </c>
     </row>
@@ -6318,11 +6318,11 @@
         <v>3403.6</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f>IF(B85=0,D85,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3403.6</v>
       </c>
       <c r="G85" s="6">
@@ -6335,11 +6335,11 @@
         <v>724.63800000000003</v>
       </c>
       <c r="J85" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K85" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K85" s="2">
-        <f t="shared" si="5"/>
         <v>724.63800000000003</v>
       </c>
       <c r="L85" s="6">
@@ -6352,11 +6352,11 @@
         <v>115.67100000000001</v>
       </c>
       <c r="O85" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>115.67100000000001</v>
       </c>
       <c r="P85" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6374,11 +6374,11 @@
         <v>2399.9</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f>IF(B86=0,D86,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2399.9</v>
       </c>
       <c r="G86" s="6">
@@ -6391,11 +6391,11 @@
         <v>593.32500000000005</v>
       </c>
       <c r="J86" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K86" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K86" s="2">
-        <f t="shared" si="5"/>
         <v>593.32500000000005</v>
       </c>
       <c r="L86" s="6">
@@ -6408,11 +6408,11 @@
         <v>92.494100000000003</v>
       </c>
       <c r="O86" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P86" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>92.494100000000003</v>
       </c>
     </row>
@@ -6430,11 +6430,11 @@
         <v>3246.87</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f>IF(B87=0,D87,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3246.87</v>
       </c>
       <c r="G87" s="6">
@@ -6447,11 +6447,11 @@
         <v>618.97299999999996</v>
       </c>
       <c r="J87" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K87" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K87" s="2">
-        <f t="shared" si="5"/>
         <v>618.97299999999996</v>
       </c>
       <c r="L87" s="6">
@@ -6464,11 +6464,11 @@
         <v>90.641499999999994</v>
       </c>
       <c r="O87" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90.641499999999994</v>
       </c>
       <c r="P87" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6486,11 +6486,11 @@
         <v>2604.29</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f>IF(B88=0,D88,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2604.29</v>
       </c>
       <c r="G88" s="6">
@@ -6503,11 +6503,11 @@
         <v>407.98899999999998</v>
       </c>
       <c r="J88" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K88" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K88" s="2">
-        <f t="shared" si="5"/>
         <v>407.98899999999998</v>
       </c>
       <c r="L88" s="6">
@@ -6520,11 +6520,11 @@
         <v>95.404499999999999</v>
       </c>
       <c r="O88" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>95.404499999999999</v>
       </c>
       <c r="P88" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6542,11 +6542,11 @@
         <v>3226.65</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f>IF(B89=0,D89,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3226.65</v>
       </c>
       <c r="G89" s="6">
@@ -6559,11 +6559,11 @@
         <v>1286.17</v>
       </c>
       <c r="J89" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K89" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K89" s="2">
-        <f t="shared" si="5"/>
         <v>1286.17</v>
       </c>
       <c r="L89" s="6">
@@ -6576,11 +6576,11 @@
         <v>90.417900000000003</v>
       </c>
       <c r="O89" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90.417900000000003</v>
       </c>
       <c r="P89" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6598,11 +6598,11 @@
         <v>3285.75</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f>IF(B90=0,D90,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3285.75</v>
       </c>
       <c r="G90" s="6">
@@ -6615,11 +6615,11 @@
         <v>967.85199999999998</v>
       </c>
       <c r="J90" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K90" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K90" s="2">
-        <f t="shared" si="5"/>
         <v>967.85199999999998</v>
       </c>
       <c r="L90" s="6">
@@ -6632,11 +6632,11 @@
         <v>63.788899999999998</v>
       </c>
       <c r="O90" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.788899999999998</v>
       </c>
     </row>
@@ -6654,11 +6654,11 @@
         <v>3220.11</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f>IF(B91=0,D91,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3220.11</v>
       </c>
       <c r="G91" s="6">
@@ -6671,11 +6671,11 @@
         <v>963.76099999999997</v>
       </c>
       <c r="J91" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K91" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K91" s="2">
-        <f t="shared" si="5"/>
         <v>963.76099999999997</v>
       </c>
       <c r="L91" s="6">
@@ -6688,11 +6688,11 @@
         <v>70.203699999999998</v>
       </c>
       <c r="O91" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>70.203699999999998</v>
       </c>
     </row>
@@ -6710,11 +6710,11 @@
         <v>3612.56</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f>IF(B92=0,D92,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3612.56</v>
       </c>
       <c r="G92" s="6">
@@ -6727,11 +6727,11 @@
         <v>836.42</v>
       </c>
       <c r="J92" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K92" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K92" s="2">
-        <f t="shared" si="5"/>
         <v>836.42</v>
       </c>
       <c r="L92" s="6">
@@ -6744,11 +6744,11 @@
         <v>71.195599999999999</v>
       </c>
       <c r="O92" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>71.195599999999999</v>
       </c>
     </row>
@@ -6766,11 +6766,11 @@
         <v>3207.32</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f>IF(B93=0,D93,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3207.32</v>
       </c>
       <c r="G93" s="6">
@@ -6783,11 +6783,11 @@
         <v>973.80399999999997</v>
       </c>
       <c r="J93" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K93" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K93" s="2">
-        <f t="shared" si="5"/>
         <v>973.80399999999997</v>
       </c>
       <c r="L93" s="6">
@@ -6800,11 +6800,11 @@
         <v>70.517600000000002</v>
       </c>
       <c r="O93" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P93" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>70.517600000000002</v>
       </c>
     </row>
@@ -6822,11 +6822,11 @@
         <v>3210.7</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f>IF(B94=0,D94,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3210.7</v>
       </c>
       <c r="G94" s="6">
@@ -6839,11 +6839,11 @@
         <v>959.39800000000002</v>
       </c>
       <c r="J94" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K94" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K94" s="2">
-        <f t="shared" si="5"/>
         <v>959.39800000000002</v>
       </c>
       <c r="L94" s="6">
@@ -6856,11 +6856,11 @@
         <v>70.040899999999993</v>
       </c>
       <c r="O94" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P94" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>70.040899999999993</v>
       </c>
     </row>
@@ -6878,11 +6878,11 @@
         <v>3287.06</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f>IF(B95=0,D95,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3287.06</v>
       </c>
       <c r="G95" s="6">
@@ -6895,11 +6895,11 @@
         <v>943.81399999999996</v>
       </c>
       <c r="J95" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K95" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K95" s="2">
-        <f t="shared" si="5"/>
         <v>943.81399999999996</v>
       </c>
       <c r="L95" s="6">
@@ -6912,11 +6912,11 @@
         <v>71.426699999999997</v>
       </c>
       <c r="O95" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P95" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>71.426699999999997</v>
       </c>
     </row>
@@ -6934,11 +6934,11 @@
         <v>3453.86</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f>IF(B96=0,D96,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3453.86</v>
       </c>
       <c r="G96" s="6">
@@ -6951,11 +6951,11 @@
         <v>983.32500000000005</v>
       </c>
       <c r="J96" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K96" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K96" s="2">
-        <f t="shared" si="5"/>
         <v>983.32500000000005</v>
       </c>
       <c r="L96" s="6">
@@ -6968,11 +6968,11 @@
         <v>78.473100000000002</v>
       </c>
       <c r="O96" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P96" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>78.473100000000002</v>
       </c>
     </row>
@@ -6990,11 +6990,11 @@
         <v>3011.68</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f>IF(B97=0,D97,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3011.68</v>
       </c>
       <c r="G97" s="6">
@@ -7007,11 +7007,11 @@
         <v>975.24</v>
       </c>
       <c r="J97" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K97" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K97" s="2">
-        <f t="shared" si="5"/>
         <v>975.24</v>
       </c>
       <c r="L97" s="6">
@@ -7024,11 +7024,11 @@
         <v>72.914400000000001</v>
       </c>
       <c r="O97" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>72.914400000000001</v>
       </c>
     </row>
@@ -7046,11 +7046,11 @@
         <v>3963.66</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f>IF(B98=0,D98,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3963.66</v>
       </c>
       <c r="G98" s="6">
@@ -7063,11 +7063,11 @@
         <v>879.09900000000005</v>
       </c>
       <c r="J98" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K98" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K98" s="2">
-        <f t="shared" si="5"/>
         <v>879.09900000000005</v>
       </c>
       <c r="L98" s="6">
@@ -7080,11 +7080,11 @@
         <v>79.4726</v>
       </c>
       <c r="O98" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P98" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>79.4726</v>
       </c>
     </row>
@@ -7102,11 +7102,11 @@
         <v>3468.11</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f>IF(B99=0,D99,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3468.11</v>
       </c>
       <c r="G99" s="6">
@@ -7119,11 +7119,11 @@
         <v>978.64599999999996</v>
       </c>
       <c r="J99" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K99" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K99" s="2">
-        <f t="shared" si="5"/>
         <v>978.64599999999996</v>
       </c>
       <c r="L99" s="6">
@@ -7136,11 +7136,11 @@
         <v>75.578000000000003</v>
       </c>
       <c r="O99" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P99" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75.578000000000003</v>
       </c>
     </row>
@@ -7158,11 +7158,11 @@
         <v>3772.74</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f>IF(B100=0,D100,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3772.74</v>
       </c>
       <c r="G100" s="6">
@@ -7175,11 +7175,11 @@
         <v>966.18299999999999</v>
       </c>
       <c r="J100" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K100" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K100" s="2">
-        <f t="shared" si="5"/>
         <v>966.18299999999999</v>
       </c>
       <c r="L100" s="6">
@@ -7192,11 +7192,11 @@
         <v>73.341800000000006</v>
       </c>
       <c r="O100" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P100" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>73.341800000000006</v>
       </c>
     </row>
@@ -7214,11 +7214,11 @@
         <v>3652</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f>IF(B101=0,D101,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3652</v>
       </c>
       <c r="G101" s="6">
@@ -7231,11 +7231,11 @@
         <v>970.62</v>
       </c>
       <c r="J101" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K101" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K101" s="2">
-        <f t="shared" si="5"/>
         <v>970.62</v>
       </c>
       <c r="L101" s="6">
@@ -7248,11 +7248,11 @@
         <v>73.078800000000001</v>
       </c>
       <c r="O101" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P101" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>73.078800000000001</v>
       </c>
     </row>
@@ -7270,11 +7270,11 @@
         <v>3657.94</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f>IF(B102=0,D102,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3657.94</v>
       </c>
       <c r="G102" s="6">
@@ -7287,11 +7287,11 @@
         <v>1026.4100000000001</v>
       </c>
       <c r="J102" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K102" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K102" s="2">
-        <f t="shared" si="5"/>
         <v>1026.4100000000001</v>
       </c>
       <c r="L102" s="6">
@@ -7304,11 +7304,11 @@
         <v>65.863500000000002</v>
       </c>
       <c r="O102" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P102" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>65.863500000000002</v>
       </c>
     </row>
@@ -7326,11 +7326,11 @@
         <v>3556.81</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f>IF(B103=0,D103,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3556.81</v>
       </c>
       <c r="G103" s="6">
@@ -7343,11 +7343,11 @@
         <v>975.56399999999996</v>
       </c>
       <c r="J103" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K103" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K103" s="2">
-        <f t="shared" si="5"/>
         <v>975.56399999999996</v>
       </c>
       <c r="L103" s="6">
@@ -7360,11 +7360,11 @@
         <v>62.752000000000002</v>
       </c>
       <c r="O103" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P103" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>62.752000000000002</v>
       </c>
     </row>
@@ -7382,11 +7382,11 @@
         <v>3316.42</v>
       </c>
       <c r="E104" s="2" t="str">
-        <f>IF(B104=0,D104,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3316.42</v>
       </c>
       <c r="G104" s="6">
@@ -7399,11 +7399,11 @@
         <v>933.71199999999999</v>
       </c>
       <c r="J104" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K104" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K104" s="2">
-        <f t="shared" si="5"/>
         <v>933.71199999999999</v>
       </c>
       <c r="L104" s="6">
@@ -7416,11 +7416,11 @@
         <v>64.107699999999994</v>
       </c>
       <c r="O104" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P104" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>64.107699999999994</v>
       </c>
     </row>
@@ -7438,11 +7438,11 @@
         <v>3611.93</v>
       </c>
       <c r="E105" s="2" t="str">
-        <f>IF(B105=0,D105,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3611.93</v>
       </c>
       <c r="G105" s="6">
@@ -7455,11 +7455,11 @@
         <v>979.56600000000003</v>
       </c>
       <c r="J105" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K105" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K105" s="2">
-        <f t="shared" si="5"/>
         <v>979.56600000000003</v>
       </c>
       <c r="L105" s="6">
@@ -7472,11 +7472,11 @@
         <v>62.866599999999998</v>
       </c>
       <c r="O105" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P105" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>62.866599999999998</v>
       </c>
     </row>
@@ -7494,11 +7494,11 @@
         <v>4024.18</v>
       </c>
       <c r="E106" s="2" t="str">
-        <f>IF(B106=0,D106,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4024.18</v>
       </c>
       <c r="G106" s="6">
@@ -7511,11 +7511,11 @@
         <v>1220.27</v>
       </c>
       <c r="J106" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K106" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K106" s="2">
-        <f t="shared" si="5"/>
         <v>1220.27</v>
       </c>
       <c r="L106" s="6">
@@ -7528,11 +7528,11 @@
         <v>90.659199999999998</v>
       </c>
       <c r="O106" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P106" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>90.659199999999998</v>
       </c>
     </row>
@@ -7550,11 +7550,11 @@
         <v>4000.12</v>
       </c>
       <c r="E107" s="2" t="str">
-        <f>IF(B107=0,D107,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4000.12</v>
       </c>
       <c r="G107" s="6">
@@ -7567,11 +7567,11 @@
         <v>1218.8</v>
       </c>
       <c r="J107" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K107" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K107" s="2">
-        <f t="shared" si="5"/>
         <v>1218.8</v>
       </c>
       <c r="L107" s="6">
@@ -7584,11 +7584,11 @@
         <v>81.482399999999998</v>
       </c>
       <c r="O107" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P107" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>81.482399999999998</v>
       </c>
     </row>
@@ -7606,11 +7606,11 @@
         <v>3986.95</v>
       </c>
       <c r="E108" s="2" t="str">
-        <f>IF(B108=0,D108,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3986.95</v>
       </c>
       <c r="G108" s="6">
@@ -7623,11 +7623,11 @@
         <v>1193.97</v>
       </c>
       <c r="J108" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K108" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K108" s="2">
-        <f t="shared" si="5"/>
         <v>1193.97</v>
       </c>
       <c r="L108" s="6">
@@ -7640,11 +7640,11 @@
         <v>74.213099999999997</v>
       </c>
       <c r="O108" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P108" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>74.213099999999997</v>
       </c>
     </row>
@@ -7662,11 +7662,11 @@
         <v>4028.38</v>
       </c>
       <c r="E109" s="2" t="str">
-        <f>IF(B109=0,D109,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4028.38</v>
       </c>
       <c r="G109" s="6">
@@ -7679,11 +7679,11 @@
         <v>1149.8900000000001</v>
       </c>
       <c r="J109" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K109" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K109" s="2">
-        <f t="shared" si="5"/>
         <v>1149.8900000000001</v>
       </c>
       <c r="L109" s="6">
@@ -7696,11 +7696,11 @@
         <v>69.098200000000006</v>
       </c>
       <c r="O109" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P109" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>69.098200000000006</v>
       </c>
     </row>
@@ -7718,11 +7718,11 @@
         <v>3991.34</v>
       </c>
       <c r="E110" s="2" t="str">
-        <f>IF(B110=0,D110,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3991.34</v>
       </c>
       <c r="G110" s="6">
@@ -7735,11 +7735,11 @@
         <v>1162.08</v>
       </c>
       <c r="J110" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K110" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K110" s="2">
-        <f t="shared" si="5"/>
         <v>1162.08</v>
       </c>
       <c r="L110" s="6">
@@ -7752,11 +7752,11 @@
         <v>67.205200000000005</v>
       </c>
       <c r="O110" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P110" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>67.205200000000005</v>
       </c>
     </row>
@@ -7774,11 +7774,11 @@
         <v>3827.83</v>
       </c>
       <c r="E111" s="2" t="str">
-        <f>IF(B111=0,D111,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3827.83</v>
       </c>
       <c r="G111" s="6">
@@ -7791,11 +7791,11 @@
         <v>1193.92</v>
       </c>
       <c r="J111" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K111" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K111" s="2">
-        <f t="shared" si="5"/>
         <v>1193.92</v>
       </c>
       <c r="L111" s="6">
@@ -7808,11 +7808,11 @@
         <v>64.440799999999996</v>
       </c>
       <c r="O111" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P111" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>64.440799999999996</v>
       </c>
     </row>
@@ -7830,11 +7830,11 @@
         <v>3800.44</v>
       </c>
       <c r="E112" s="2" t="str">
-        <f>IF(B112=0,D112,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3800.44</v>
       </c>
       <c r="G112" s="6">
@@ -7847,11 +7847,11 @@
         <v>1142.56</v>
       </c>
       <c r="J112" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K112" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K112" s="2">
-        <f t="shared" si="5"/>
         <v>1142.56</v>
       </c>
       <c r="L112" s="6">
@@ -7864,11 +7864,11 @@
         <v>65.392499999999998</v>
       </c>
       <c r="O112" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P112" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>65.392499999999998</v>
       </c>
     </row>
@@ -7886,11 +7886,11 @@
         <v>3883.8</v>
       </c>
       <c r="E113" s="2" t="str">
-        <f>IF(B113=0,D113,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3883.8</v>
       </c>
       <c r="G113" s="6">
@@ -7903,11 +7903,11 @@
         <v>1120.32</v>
       </c>
       <c r="J113" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K113" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K113" s="2">
-        <f t="shared" si="5"/>
         <v>1120.32</v>
       </c>
       <c r="L113" s="6">
@@ -7920,11 +7920,11 @@
         <v>63.7515</v>
       </c>
       <c r="O113" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P113" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.7515</v>
       </c>
     </row>
@@ -7942,11 +7942,11 @@
         <v>3755.7</v>
       </c>
       <c r="E114" s="2" t="str">
-        <f>IF(B114=0,D114,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3755.7</v>
       </c>
       <c r="G114" s="6">
@@ -7959,11 +7959,11 @@
         <v>1097.3800000000001</v>
       </c>
       <c r="J114" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K114" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K114" s="2">
-        <f t="shared" si="5"/>
         <v>1097.3800000000001</v>
       </c>
       <c r="L114" s="6">
@@ -7976,11 +7976,11 @@
         <v>64.125699999999995</v>
       </c>
       <c r="O114" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P114" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>64.125699999999995</v>
       </c>
     </row>
@@ -7998,11 +7998,11 @@
         <v>3954.77</v>
       </c>
       <c r="E115" s="2" t="str">
-        <f>IF(B115=0,D115,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3954.77</v>
       </c>
       <c r="G115" s="6">
@@ -8015,11 +8015,11 @@
         <v>1049.51</v>
       </c>
       <c r="J115" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K115" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K115" s="2">
-        <f t="shared" si="5"/>
         <v>1049.51</v>
       </c>
       <c r="L115" s="6">
@@ -8032,11 +8032,11 @@
         <v>62.3354</v>
       </c>
       <c r="O115" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P115" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>62.3354</v>
       </c>
     </row>
@@ -8054,11 +8054,11 @@
         <v>3981.21</v>
       </c>
       <c r="E116" s="2" t="str">
-        <f>IF(B116=0,D116,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3981.21</v>
       </c>
       <c r="G116" s="6">
@@ -8071,11 +8071,11 @@
         <v>989.197</v>
       </c>
       <c r="J116" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K116" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K116" s="2">
-        <f t="shared" si="5"/>
         <v>989.197</v>
       </c>
       <c r="L116" s="6">
@@ -8088,11 +8088,11 @@
         <v>61.603700000000003</v>
       </c>
       <c r="O116" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P116" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>61.603700000000003</v>
       </c>
     </row>
@@ -8110,11 +8110,11 @@
         <v>3498.54</v>
       </c>
       <c r="E117" s="2" t="str">
-        <f>IF(B117=0,D117,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3498.54</v>
       </c>
       <c r="G117" s="6">
@@ -8127,11 +8127,11 @@
         <v>989.202</v>
       </c>
       <c r="J117" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K117" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K117" s="2">
-        <f t="shared" si="5"/>
         <v>989.202</v>
       </c>
       <c r="L117" s="6">
@@ -8144,11 +8144,11 @@
         <v>68.731300000000005</v>
       </c>
       <c r="O117" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P117" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>68.731300000000005</v>
       </c>
     </row>
@@ -8166,11 +8166,11 @@
         <v>3572.58</v>
       </c>
       <c r="E118" s="2" t="str">
-        <f>IF(B118=0,D118,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F118" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3572.58</v>
       </c>
       <c r="G118" s="6">
@@ -8183,11 +8183,11 @@
         <v>921.96</v>
       </c>
       <c r="J118" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K118" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K118" s="2">
-        <f t="shared" si="5"/>
         <v>921.96</v>
       </c>
       <c r="L118" s="6">
@@ -8200,11 +8200,11 @@
         <v>64.957400000000007</v>
       </c>
       <c r="O118" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P118" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>64.957400000000007</v>
       </c>
     </row>
@@ -8222,11 +8222,11 @@
         <v>3336.26</v>
       </c>
       <c r="E119" s="2" t="str">
-        <f>IF(B119=0,D119,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3336.26</v>
       </c>
       <c r="G119" s="6">
@@ -8239,11 +8239,11 @@
         <v>962.39800000000002</v>
       </c>
       <c r="J119" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K119" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K119" s="2">
-        <f t="shared" si="5"/>
         <v>962.39800000000002</v>
       </c>
       <c r="L119" s="6">
@@ -8256,11 +8256,11 @@
         <v>63.501600000000003</v>
       </c>
       <c r="O119" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P119" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63.501600000000003</v>
       </c>
     </row>
@@ -8278,11 +8278,11 @@
         <v>3712</v>
       </c>
       <c r="E120" s="2" t="str">
-        <f>IF(B120=0,D120,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F120" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3712</v>
       </c>
       <c r="G120" s="6">
@@ -8295,11 +8295,11 @@
         <v>940.702</v>
       </c>
       <c r="J120" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K120" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K120" s="2">
-        <f t="shared" si="5"/>
         <v>940.702</v>
       </c>
       <c r="L120" s="6">
@@ -8312,11 +8312,11 @@
         <v>67.746700000000004</v>
       </c>
       <c r="O120" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P120" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>67.746700000000004</v>
       </c>
     </row>
@@ -8334,11 +8334,11 @@
         <v>3297.91</v>
       </c>
       <c r="E121" s="2" t="str">
-        <f>IF(B121=0,D121,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F121" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3297.91</v>
       </c>
       <c r="G121" s="6">
@@ -8351,11 +8351,11 @@
         <v>937.65</v>
       </c>
       <c r="J121" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K121" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K121" s="2">
-        <f t="shared" si="5"/>
         <v>937.65</v>
       </c>
       <c r="L121" s="6">
@@ -8368,11 +8368,11 @@
         <v>64.774100000000004</v>
       </c>
       <c r="O121" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P121" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>64.774100000000004</v>
       </c>
     </row>
@@ -8390,11 +8390,11 @@
         <v>5297.64</v>
       </c>
       <c r="E122" s="2">
-        <f>IF(B122=0,D122,"")</f>
+        <f t="shared" si="6"/>
         <v>5297.64</v>
       </c>
       <c r="F122" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G122" s="6">
@@ -8407,11 +8407,11 @@
         <v>1210.31</v>
       </c>
       <c r="J122" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K122" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K122" s="2">
-        <f t="shared" si="5"/>
         <v>1210.31</v>
       </c>
       <c r="L122" s="6">
@@ -8424,11 +8424,11 @@
         <v>109.32</v>
       </c>
       <c r="O122" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P122" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>109.32</v>
       </c>
     </row>
@@ -8446,11 +8446,11 @@
         <v>5311.71</v>
       </c>
       <c r="E123" s="2">
-        <f>IF(B123=0,D123,"")</f>
+        <f t="shared" si="6"/>
         <v>5311.71</v>
       </c>
       <c r="F123" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G123" s="6">
@@ -8463,11 +8463,11 @@
         <v>825.36599999999999</v>
       </c>
       <c r="J123" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K123" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K123" s="2">
-        <f t="shared" si="5"/>
         <v>825.36599999999999</v>
       </c>
       <c r="L123" s="6">
@@ -8480,11 +8480,11 @@
         <v>106.254</v>
       </c>
       <c r="O123" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P123" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>106.254</v>
       </c>
     </row>
@@ -8502,11 +8502,11 @@
         <v>5449.42</v>
       </c>
       <c r="E124" s="2">
-        <f>IF(B124=0,D124,"")</f>
+        <f t="shared" si="6"/>
         <v>5449.42</v>
       </c>
       <c r="F124" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G124" s="6">
@@ -8519,11 +8519,11 @@
         <v>957.58299999999997</v>
       </c>
       <c r="J124" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K124" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K124" s="2">
-        <f t="shared" si="5"/>
         <v>957.58299999999997</v>
       </c>
       <c r="L124" s="6">
@@ -8536,11 +8536,11 @@
         <v>105.63</v>
       </c>
       <c r="O124" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P124" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>105.63</v>
       </c>
     </row>
@@ -8558,11 +8558,11 @@
         <v>5399.12</v>
       </c>
       <c r="E125" s="2">
-        <f>IF(B125=0,D125,"")</f>
+        <f t="shared" si="6"/>
         <v>5399.12</v>
       </c>
       <c r="F125" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G125" s="6">
@@ -8575,11 +8575,11 @@
         <v>878.77300000000002</v>
       </c>
       <c r="J125" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K125" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K125" s="2">
-        <f t="shared" si="5"/>
         <v>878.77300000000002</v>
       </c>
       <c r="L125" s="6">
@@ -8592,11 +8592,11 @@
         <v>93.960700000000003</v>
       </c>
       <c r="O125" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P125" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>93.960700000000003</v>
       </c>
     </row>
@@ -8614,11 +8614,11 @@
         <v>5445.64</v>
       </c>
       <c r="E126" s="2">
-        <f>IF(B126=0,D126,"")</f>
+        <f t="shared" si="6"/>
         <v>5445.64</v>
       </c>
       <c r="F126" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G126" s="6">
@@ -8631,11 +8631,11 @@
         <v>735.24699999999996</v>
       </c>
       <c r="J126" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K126" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K126" s="2">
-        <f t="shared" si="5"/>
         <v>735.24699999999996</v>
       </c>
       <c r="L126" s="6">
@@ -8648,11 +8648,11 @@
         <v>73.682500000000005</v>
       </c>
       <c r="O126" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P126" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>73.682500000000005</v>
       </c>
     </row>
@@ -8670,11 +8670,11 @@
         <v>5307.92</v>
       </c>
       <c r="E127" s="2">
-        <f>IF(B127=0,D127,"")</f>
+        <f t="shared" si="6"/>
         <v>5307.92</v>
       </c>
       <c r="F127" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G127" s="6">
@@ -8687,11 +8687,11 @@
         <v>1147.3699999999999</v>
       </c>
       <c r="J127" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K127" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K127" s="2">
-        <f t="shared" si="5"/>
         <v>1147.3699999999999</v>
       </c>
       <c r="L127" s="6">
@@ -8704,11 +8704,11 @@
         <v>91.695599999999999</v>
       </c>
       <c r="O127" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P127" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>91.695599999999999</v>
       </c>
     </row>
@@ -8726,11 +8726,11 @@
         <v>5298.12</v>
       </c>
       <c r="E128" s="2">
-        <f>IF(B128=0,D128,"")</f>
+        <f t="shared" si="6"/>
         <v>5298.12</v>
       </c>
       <c r="F128" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G128" s="6">
@@ -8743,11 +8743,11 @@
         <v>1198.79</v>
       </c>
       <c r="J128" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K128" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K128" s="2">
-        <f t="shared" si="5"/>
         <v>1198.79</v>
       </c>
       <c r="L128" s="6">
@@ -8760,11 +8760,11 @@
         <v>107.76900000000001</v>
       </c>
       <c r="O128" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P128" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>107.76900000000001</v>
       </c>
     </row>
@@ -8782,11 +8782,11 @@
         <v>5152.2700000000004</v>
       </c>
       <c r="E129" s="2">
-        <f>IF(B129=0,D129,"")</f>
+        <f t="shared" si="6"/>
         <v>5152.2700000000004</v>
       </c>
       <c r="F129" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G129" s="6">
@@ -8799,11 +8799,11 @@
         <v>927.03800000000001</v>
       </c>
       <c r="J129" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K129" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K129" s="2">
-        <f t="shared" si="5"/>
         <v>927.03800000000001</v>
       </c>
       <c r="L129" s="6">
@@ -8816,11 +8816,11 @@
         <v>107.483</v>
       </c>
       <c r="O129" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P129" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>107.483</v>
       </c>
     </row>
@@ -8838,11 +8838,11 @@
         <v>4753.24</v>
       </c>
       <c r="E130" s="2">
-        <f>IF(B130=0,D130,"")</f>
+        <f t="shared" ref="E130:E193" si="12">IF(B130=0,D130,"")</f>
         <v>4753.24</v>
       </c>
       <c r="F130" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G130" s="6">
@@ -8855,11 +8855,11 @@
         <v>826.36900000000003</v>
       </c>
       <c r="J130" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K130" s="2">
-        <f t="shared" ref="K130:K193" si="10">IF(G130=1,I130,"")</f>
+        <f t="shared" ref="K130:K193" si="13">IF(G130=1,I130,"")</f>
         <v>826.36900000000003</v>
       </c>
       <c r="L130" s="6">
@@ -8872,11 +8872,11 @@
         <v>214</v>
       </c>
       <c r="O130" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P130" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8894,11 +8894,11 @@
         <v>4822.3</v>
       </c>
       <c r="E131" s="2">
-        <f>IF(B131=0,D131,"")</f>
+        <f t="shared" si="12"/>
         <v>4822.3</v>
       </c>
       <c r="F131" s="2" t="str">
-        <f t="shared" ref="F131:F194" si="11">IF(B131=1,D131,"")</f>
+        <f t="shared" ref="F131:F194" si="14">IF(B131=1,D131,"")</f>
         <v/>
       </c>
       <c r="G131" s="6">
@@ -8911,11 +8911,11 @@
         <v>646.90800000000002</v>
       </c>
       <c r="J131" s="2" t="str">
-        <f t="shared" ref="J131:J194" si="12">IF(G131=0,I131,"")</f>
+        <f t="shared" ref="J131:J194" si="15">IF(G131=0,I131,"")</f>
         <v/>
       </c>
       <c r="K131" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>646.90800000000002</v>
       </c>
       <c r="L131" s="6">
@@ -8928,11 +8928,11 @@
         <v>103.84399999999999</v>
       </c>
       <c r="O131" s="2">
-        <f t="shared" ref="O131:O194" si="13">IF(L131=0,N131,"")</f>
+        <f t="shared" ref="O131:O194" si="16">IF(L131=0,N131,"")</f>
         <v>103.84399999999999</v>
       </c>
       <c r="P131" s="2" t="str">
-        <f t="shared" ref="P131:P194" si="14">IF(L131=1,N131,"")</f>
+        <f t="shared" ref="P131:P194" si="17">IF(L131=1,N131,"")</f>
         <v/>
       </c>
     </row>
@@ -8950,11 +8950,11 @@
         <v>4940.38</v>
       </c>
       <c r="E132" s="2">
-        <f>IF(B132=0,D132,"")</f>
+        <f t="shared" si="12"/>
         <v>4940.38</v>
       </c>
       <c r="F132" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G132" s="6">
@@ -8967,11 +8967,11 @@
         <v>1227.74</v>
       </c>
       <c r="J132" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K132" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1227.74</v>
       </c>
       <c r="L132" s="6">
@@ -8984,11 +8984,11 @@
         <v>118.755</v>
       </c>
       <c r="O132" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>118.755</v>
       </c>
       <c r="P132" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9006,11 +9006,11 @@
         <v>5279.48</v>
       </c>
       <c r="E133" s="2">
-        <f>IF(B133=0,D133,"")</f>
+        <f t="shared" si="12"/>
         <v>5279.48</v>
       </c>
       <c r="F133" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G133" s="6">
@@ -9023,11 +9023,11 @@
         <v>1304.8399999999999</v>
       </c>
       <c r="J133" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K133" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1304.8399999999999</v>
       </c>
       <c r="L133" s="6">
@@ -9040,11 +9040,11 @@
         <v>118.42100000000001</v>
       </c>
       <c r="O133" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P133" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>118.42100000000001</v>
       </c>
     </row>
@@ -9062,11 +9062,11 @@
         <v>5271.48</v>
       </c>
       <c r="E134" s="2">
-        <f>IF(B134=0,D134,"")</f>
+        <f t="shared" si="12"/>
         <v>5271.48</v>
       </c>
       <c r="F134" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G134" s="6">
@@ -9079,11 +9079,11 @@
         <v>868.88199999999995</v>
       </c>
       <c r="J134" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K134" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>868.88199999999995</v>
       </c>
       <c r="L134" s="6">
@@ -9096,11 +9096,11 @@
         <v>214</v>
       </c>
       <c r="O134" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P134" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9118,11 +9118,11 @@
         <v>5405.3</v>
       </c>
       <c r="E135" s="2">
-        <f>IF(B135=0,D135,"")</f>
+        <f t="shared" si="12"/>
         <v>5405.3</v>
       </c>
       <c r="F135" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G135" s="6">
@@ -9135,11 +9135,11 @@
         <v>939.64300000000003</v>
       </c>
       <c r="J135" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K135" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>939.64300000000003</v>
       </c>
       <c r="L135" s="6">
@@ -9152,11 +9152,11 @@
         <v>214</v>
       </c>
       <c r="O135" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P135" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9174,11 +9174,11 @@
         <v>5475.28</v>
       </c>
       <c r="E136" s="2">
-        <f>IF(B136=0,D136,"")</f>
+        <f t="shared" si="12"/>
         <v>5475.28</v>
       </c>
       <c r="F136" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G136" s="6">
@@ -9191,11 +9191,11 @@
         <v>966.42499999999995</v>
       </c>
       <c r="J136" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K136" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>966.42499999999995</v>
       </c>
       <c r="L136" s="6">
@@ -9208,11 +9208,11 @@
         <v>214</v>
       </c>
       <c r="O136" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P136" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9230,11 +9230,11 @@
         <v>5389.84</v>
       </c>
       <c r="E137" s="2">
-        <f>IF(B137=0,D137,"")</f>
+        <f t="shared" si="12"/>
         <v>5389.84</v>
       </c>
       <c r="F137" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G137" s="6">
@@ -9247,11 +9247,11 @@
         <v>1029.7</v>
       </c>
       <c r="J137" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K137" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1029.7</v>
       </c>
       <c r="L137" s="6">
@@ -9264,11 +9264,11 @@
         <v>214</v>
       </c>
       <c r="O137" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P137" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9286,11 +9286,11 @@
         <v>5568.12</v>
       </c>
       <c r="E138" s="2">
-        <f>IF(B138=0,D138,"")</f>
+        <f t="shared" si="12"/>
         <v>5568.12</v>
       </c>
       <c r="F138" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G138" s="6">
@@ -9303,11 +9303,11 @@
         <v>930.56500000000005</v>
       </c>
       <c r="J138" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K138" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>930.56500000000005</v>
       </c>
       <c r="L138" s="6">
@@ -9320,11 +9320,11 @@
         <v>122.66</v>
       </c>
       <c r="O138" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P138" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>122.66</v>
       </c>
     </row>
@@ -9342,11 +9342,11 @@
         <v>5473.15</v>
       </c>
       <c r="E139" s="2">
-        <f>IF(B139=0,D139,"")</f>
+        <f t="shared" si="12"/>
         <v>5473.15</v>
       </c>
       <c r="F139" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G139" s="6">
@@ -9359,11 +9359,11 @@
         <v>893.745</v>
       </c>
       <c r="J139" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K139" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>893.745</v>
       </c>
       <c r="L139" s="6">
@@ -9376,11 +9376,11 @@
         <v>214</v>
       </c>
       <c r="O139" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P139" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9398,11 +9398,11 @@
         <v>5677.49</v>
       </c>
       <c r="E140" s="2">
-        <f>IF(B140=0,D140,"")</f>
+        <f t="shared" si="12"/>
         <v>5677.49</v>
       </c>
       <c r="F140" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G140" s="6">
@@ -9415,11 +9415,11 @@
         <v>937.40599999999995</v>
       </c>
       <c r="J140" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>937.40599999999995</v>
       </c>
       <c r="L140" s="6">
@@ -9432,11 +9432,11 @@
         <v>108.822</v>
       </c>
       <c r="O140" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P140" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>108.822</v>
       </c>
     </row>
@@ -9454,11 +9454,11 @@
         <v>5412.36</v>
       </c>
       <c r="E141" s="2" t="str">
-        <f>IF(B141=0,D141,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F141" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5412.36</v>
       </c>
       <c r="G141" s="6">
@@ -9471,11 +9471,11 @@
         <v>939.57299999999998</v>
       </c>
       <c r="J141" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K141" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>939.57299999999998</v>
       </c>
       <c r="L141" s="6">
@@ -9488,11 +9488,11 @@
         <v>120.92400000000001</v>
       </c>
       <c r="O141" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>120.92400000000001</v>
       </c>
       <c r="P141" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9510,11 +9510,11 @@
         <v>5341.67</v>
       </c>
       <c r="E142" s="2">
-        <f>IF(B142=0,D142,"")</f>
+        <f t="shared" si="12"/>
         <v>5341.67</v>
       </c>
       <c r="F142" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G142" s="6">
@@ -9527,11 +9527,11 @@
         <v>1179.97</v>
       </c>
       <c r="J142" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1179.97</v>
       </c>
       <c r="K142" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L142" s="6">
@@ -9544,11 +9544,11 @@
         <v>214</v>
       </c>
       <c r="O142" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P142" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9566,11 +9566,11 @@
         <v>5605.49</v>
       </c>
       <c r="E143" s="2">
-        <f>IF(B143=0,D143,"")</f>
+        <f t="shared" si="12"/>
         <v>5605.49</v>
       </c>
       <c r="F143" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G143" s="6">
@@ -9583,11 +9583,11 @@
         <v>1112.22</v>
       </c>
       <c r="J143" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1112.22</v>
       </c>
       <c r="K143" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L143" s="6">
@@ -9600,11 +9600,11 @@
         <v>214</v>
       </c>
       <c r="O143" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P143" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9622,11 +9622,11 @@
         <v>5433.13</v>
       </c>
       <c r="E144" s="2" t="str">
-        <f>IF(B144=0,D144,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F144" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5433.13</v>
       </c>
       <c r="G144" s="6">
@@ -9639,11 +9639,11 @@
         <v>799.08900000000006</v>
       </c>
       <c r="J144" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K144" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>799.08900000000006</v>
       </c>
       <c r="L144" s="6">
@@ -9656,11 +9656,11 @@
         <v>108.08</v>
       </c>
       <c r="O144" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P144" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>108.08</v>
       </c>
     </row>
@@ -9678,11 +9678,11 @@
         <v>5710.44</v>
       </c>
       <c r="E145" s="2">
-        <f>IF(B145=0,D145,"")</f>
+        <f t="shared" si="12"/>
         <v>5710.44</v>
       </c>
       <c r="F145" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G145" s="6">
@@ -9695,11 +9695,11 @@
         <v>1133.28</v>
       </c>
       <c r="J145" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1133.28</v>
       </c>
       <c r="K145" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L145" s="6">
@@ -9712,11 +9712,11 @@
         <v>214</v>
       </c>
       <c r="O145" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P145" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9734,11 +9734,11 @@
         <v>5048.88</v>
       </c>
       <c r="E146" s="2">
-        <f>IF(B146=0,D146,"")</f>
+        <f t="shared" si="12"/>
         <v>5048.88</v>
       </c>
       <c r="F146" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G146" s="6">
@@ -9751,11 +9751,11 @@
         <v>536.67499999999995</v>
       </c>
       <c r="J146" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K146" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>536.67499999999995</v>
       </c>
       <c r="L146" s="6">
@@ -9768,11 +9768,11 @@
         <v>214</v>
       </c>
       <c r="O146" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P146" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9790,11 +9790,11 @@
         <v>5361.42</v>
       </c>
       <c r="E147" s="2">
-        <f>IF(B147=0,D147,"")</f>
+        <f t="shared" si="12"/>
         <v>5361.42</v>
       </c>
       <c r="F147" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G147" s="6">
@@ -9807,11 +9807,11 @@
         <v>686.09100000000001</v>
       </c>
       <c r="J147" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K147" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>686.09100000000001</v>
       </c>
       <c r="L147" s="6">
@@ -9824,11 +9824,11 @@
         <v>214</v>
       </c>
       <c r="O147" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P147" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9846,11 +9846,11 @@
         <v>3284.95</v>
       </c>
       <c r="E148" s="2" t="str">
-        <f>IF(B148=0,D148,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F148" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3284.95</v>
       </c>
       <c r="G148" s="6">
@@ -9863,11 +9863,11 @@
         <v>1243.17</v>
       </c>
       <c r="J148" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1243.17</v>
       </c>
       <c r="K148" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L148" s="6">
@@ -9880,11 +9880,11 @@
         <v>65.343999999999994</v>
       </c>
       <c r="O148" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>65.343999999999994</v>
       </c>
       <c r="P148" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9902,11 +9902,11 @@
         <v>5537.34</v>
       </c>
       <c r="E149" s="2" t="str">
-        <f>IF(B149=0,D149,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F149" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5537.34</v>
       </c>
       <c r="G149" s="6">
@@ -9919,11 +9919,11 @@
         <v>613.97500000000002</v>
       </c>
       <c r="J149" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K149" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>613.97500000000002</v>
       </c>
       <c r="L149" s="6">
@@ -9936,11 +9936,11 @@
         <v>214</v>
       </c>
       <c r="O149" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P149" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9958,11 +9958,11 @@
         <v>3248.34</v>
       </c>
       <c r="E150" s="2" t="str">
-        <f>IF(B150=0,D150,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F150" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3248.34</v>
       </c>
       <c r="G150" s="6">
@@ -9975,11 +9975,11 @@
         <v>1259.48</v>
       </c>
       <c r="J150" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1259.48</v>
       </c>
       <c r="K150" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L150" s="6">
@@ -9992,11 +9992,11 @@
         <v>68.838899999999995</v>
       </c>
       <c r="O150" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P150" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>68.838899999999995</v>
       </c>
     </row>
@@ -10014,11 +10014,11 @@
         <v>5259.22</v>
       </c>
       <c r="E151" s="2" t="str">
-        <f>IF(B151=0,D151,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F151" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5259.22</v>
       </c>
       <c r="G151" s="6">
@@ -10031,11 +10031,11 @@
         <v>696.61800000000005</v>
       </c>
       <c r="J151" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>696.61800000000005</v>
       </c>
       <c r="L151" s="6">
@@ -10048,11 +10048,11 @@
         <v>214</v>
       </c>
       <c r="O151" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P151" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -10070,11 +10070,11 @@
         <v>3308.69</v>
       </c>
       <c r="E152" s="2" t="str">
-        <f>IF(B152=0,D152,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F152" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3308.69</v>
       </c>
       <c r="G152" s="6">
@@ -10087,11 +10087,11 @@
         <v>1191.7</v>
       </c>
       <c r="J152" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1191.7</v>
       </c>
       <c r="K152" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L152" s="6">
@@ -10104,11 +10104,11 @@
         <v>69.443700000000007</v>
       </c>
       <c r="O152" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P152" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>69.443700000000007</v>
       </c>
     </row>
@@ -10126,11 +10126,11 @@
         <v>3252.9</v>
       </c>
       <c r="E153" s="2" t="str">
-        <f>IF(B153=0,D153,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F153" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3252.9</v>
       </c>
       <c r="G153" s="6">
@@ -10143,11 +10143,11 @@
         <v>1341.36</v>
       </c>
       <c r="J153" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1341.36</v>
       </c>
       <c r="K153" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L153" s="6">
@@ -10160,11 +10160,11 @@
         <v>70.289400000000001</v>
       </c>
       <c r="O153" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>70.289400000000001</v>
       </c>
       <c r="P153" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -10182,11 +10182,11 @@
         <v>3299.34</v>
       </c>
       <c r="E154" s="2" t="str">
-        <f>IF(B154=0,D154,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F154" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3299.34</v>
       </c>
       <c r="G154" s="6">
@@ -10199,11 +10199,11 @@
         <v>1423.18</v>
       </c>
       <c r="J154" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1423.18</v>
       </c>
       <c r="K154" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L154" s="6">
@@ -10216,11 +10216,11 @@
         <v>66.395499999999998</v>
       </c>
       <c r="O154" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P154" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>66.395499999999998</v>
       </c>
     </row>
@@ -10238,11 +10238,11 @@
         <v>3240.53</v>
       </c>
       <c r="E155" s="2" t="str">
-        <f>IF(B155=0,D155,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F155" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3240.53</v>
       </c>
       <c r="G155" s="6">
@@ -10255,11 +10255,11 @@
         <v>1317.23</v>
       </c>
       <c r="J155" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1317.23</v>
       </c>
       <c r="K155" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L155" s="6">
@@ -10272,11 +10272,11 @@
         <v>66.246300000000005</v>
       </c>
       <c r="O155" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>66.246300000000005</v>
       </c>
       <c r="P155" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -10294,11 +10294,11 @@
         <v>3240.53</v>
       </c>
       <c r="E156" s="2" t="str">
-        <f>IF(B156=0,D156,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F156" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3240.53</v>
       </c>
       <c r="G156" s="6">
@@ -10311,11 +10311,11 @@
         <v>1317.23</v>
       </c>
       <c r="J156" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1317.23</v>
       </c>
       <c r="K156" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L156" s="6">
@@ -10328,11 +10328,11 @@
         <v>66.246300000000005</v>
       </c>
       <c r="O156" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>66.246300000000005</v>
       </c>
       <c r="P156" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -10350,11 +10350,11 @@
         <v>3299.74</v>
       </c>
       <c r="E157" s="2" t="str">
-        <f>IF(B157=0,D157,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F157" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3299.74</v>
       </c>
       <c r="G157" s="6">
@@ -10367,11 +10367,11 @@
         <v>1404.99</v>
       </c>
       <c r="J157" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K157" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1404.99</v>
       </c>
       <c r="L157" s="6">
@@ -10384,11 +10384,11 @@
         <v>64.778599999999997</v>
       </c>
       <c r="O157" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P157" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>64.778599999999997</v>
       </c>
     </row>
@@ -10406,11 +10406,11 @@
         <v>3299.74</v>
       </c>
       <c r="E158" s="2" t="str">
-        <f>IF(B158=0,D158,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F158" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3299.74</v>
       </c>
       <c r="G158" s="6">
@@ -10423,11 +10423,11 @@
         <v>1404.99</v>
       </c>
       <c r="J158" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K158" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1404.99</v>
       </c>
       <c r="L158" s="6">
@@ -10440,11 +10440,11 @@
         <v>64.778599999999997</v>
       </c>
       <c r="O158" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P158" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>64.778599999999997</v>
       </c>
     </row>
@@ -10462,11 +10462,11 @@
         <v>3275.36</v>
       </c>
       <c r="E159" s="2" t="str">
-        <f>IF(B159=0,D159,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F159" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3275.36</v>
       </c>
       <c r="G159" s="6">
@@ -10479,11 +10479,11 @@
         <v>1334.25</v>
       </c>
       <c r="J159" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1334.25</v>
       </c>
       <c r="K159" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L159" s="6">
@@ -10496,11 +10496,11 @@
         <v>68.427700000000002</v>
       </c>
       <c r="O159" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P159" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>68.427700000000002</v>
       </c>
     </row>
@@ -10518,11 +10518,11 @@
         <v>3275.36</v>
       </c>
       <c r="E160" s="2" t="str">
-        <f>IF(B160=0,D160,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F160" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3275.36</v>
       </c>
       <c r="G160" s="6">
@@ -10535,11 +10535,11 @@
         <v>1334.25</v>
       </c>
       <c r="J160" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1334.25</v>
       </c>
       <c r="K160" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L160" s="6">
@@ -10552,11 +10552,11 @@
         <v>68.427700000000002</v>
       </c>
       <c r="O160" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P160" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>68.427700000000002</v>
       </c>
     </row>
@@ -10574,11 +10574,11 @@
         <v>3254.74</v>
       </c>
       <c r="E161" s="2" t="str">
-        <f>IF(B161=0,D161,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F161" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3254.74</v>
       </c>
       <c r="G161" s="6">
@@ -10591,11 +10591,11 @@
         <v>1188.83</v>
       </c>
       <c r="J161" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1188.83</v>
       </c>
       <c r="K161" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L161" s="6">
@@ -10608,11 +10608,11 @@
         <v>70.033299999999997</v>
       </c>
       <c r="O161" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P161" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>70.033299999999997</v>
       </c>
     </row>
@@ -10630,11 +10630,11 @@
         <v>5526.92</v>
       </c>
       <c r="E162" s="2" t="str">
-        <f>IF(B162=0,D162,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F162" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5526.92</v>
       </c>
       <c r="G162" s="6">
@@ -10647,11 +10647,11 @@
         <v>523.50699999999995</v>
       </c>
       <c r="J162" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K162" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>523.50699999999995</v>
       </c>
       <c r="L162" s="6">
@@ -10664,11 +10664,11 @@
         <v>214</v>
       </c>
       <c r="O162" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P162" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -10686,11 +10686,11 @@
         <v>3296.31</v>
       </c>
       <c r="E163" s="2">
-        <f>IF(B163=0,D163,"")</f>
+        <f t="shared" si="12"/>
         <v>3296.31</v>
       </c>
       <c r="F163" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G163" s="6">
@@ -10703,11 +10703,11 @@
         <v>1324.52</v>
       </c>
       <c r="J163" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1324.52</v>
       </c>
       <c r="K163" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L163" s="6">
@@ -10720,11 +10720,11 @@
         <v>71.741900000000001</v>
       </c>
       <c r="O163" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P163" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>71.741900000000001</v>
       </c>
     </row>
@@ -10742,11 +10742,11 @@
         <v>5510.4</v>
       </c>
       <c r="E164" s="2" t="str">
-        <f>IF(B164=0,D164,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F164" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5510.4</v>
       </c>
       <c r="G164" s="6">
@@ -10759,11 +10759,11 @@
         <v>470.387</v>
       </c>
       <c r="J164" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K164" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>470.387</v>
       </c>
       <c r="L164" s="6">
@@ -10776,11 +10776,11 @@
         <v>214</v>
       </c>
       <c r="O164" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P164" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -10798,11 +10798,11 @@
         <v>3294.17</v>
       </c>
       <c r="E165" s="2">
-        <f>IF(B165=0,D165,"")</f>
+        <f t="shared" si="12"/>
         <v>3294.17</v>
       </c>
       <c r="F165" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G165" s="6">
@@ -10815,11 +10815,11 @@
         <v>1315.9</v>
       </c>
       <c r="J165" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1315.9</v>
       </c>
       <c r="K165" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L165" s="6">
@@ -10832,11 +10832,11 @@
         <v>66.618700000000004</v>
       </c>
       <c r="O165" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P165" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>66.618700000000004</v>
       </c>
     </row>
@@ -10854,11 +10854,11 @@
         <v>5518.48</v>
       </c>
       <c r="E166" s="2" t="str">
-        <f>IF(B166=0,D166,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F166" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5518.48</v>
       </c>
       <c r="G166" s="6">
@@ -10871,11 +10871,11 @@
         <v>519.13900000000001</v>
       </c>
       <c r="J166" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K166" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>519.13900000000001</v>
       </c>
       <c r="L166" s="6">
@@ -10888,11 +10888,11 @@
         <v>214</v>
       </c>
       <c r="O166" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P166" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -10910,11 +10910,11 @@
         <v>3274.83</v>
       </c>
       <c r="E167" s="2" t="str">
-        <f>IF(B167=0,D167,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F167" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3274.83</v>
       </c>
       <c r="G167" s="6">
@@ -10927,11 +10927,11 @@
         <v>1224.3800000000001</v>
       </c>
       <c r="J167" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1224.3800000000001</v>
       </c>
       <c r="K167" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L167" s="6">
@@ -10944,11 +10944,11 @@
         <v>64.575800000000001</v>
       </c>
       <c r="O167" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>64.575800000000001</v>
       </c>
       <c r="P167" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -10966,11 +10966,11 @@
         <v>5904.94</v>
       </c>
       <c r="E168" s="2" t="str">
-        <f>IF(B168=0,D168,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F168" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5904.94</v>
       </c>
       <c r="G168" s="6">
@@ -10983,11 +10983,11 @@
         <v>849.01599999999996</v>
       </c>
       <c r="J168" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K168" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>849.01599999999996</v>
       </c>
       <c r="L168" s="6">
@@ -11000,11 +11000,11 @@
         <v>214</v>
       </c>
       <c r="O168" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P168" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -11022,11 +11022,11 @@
         <v>3224.84</v>
       </c>
       <c r="E169" s="2" t="str">
-        <f>IF(B169=0,D169,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F169" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3224.84</v>
       </c>
       <c r="G169" s="6">
@@ -11039,11 +11039,11 @@
         <v>1195.32</v>
       </c>
       <c r="J169" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1195.32</v>
       </c>
       <c r="K169" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L169" s="6">
@@ -11056,11 +11056,11 @@
         <v>61.570099999999996</v>
       </c>
       <c r="O169" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>61.570099999999996</v>
       </c>
       <c r="P169" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -11078,11 +11078,11 @@
         <v>5661.39</v>
       </c>
       <c r="E170" s="2" t="str">
-        <f>IF(B170=0,D170,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F170" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5661.39</v>
       </c>
       <c r="G170" s="6">
@@ -11095,11 +11095,11 @@
         <v>574.01199999999994</v>
       </c>
       <c r="J170" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K170" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>574.01199999999994</v>
       </c>
       <c r="L170" s="6">
@@ -11112,11 +11112,11 @@
         <v>214</v>
       </c>
       <c r="O170" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P170" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -11134,11 +11134,11 @@
         <v>3201.67</v>
       </c>
       <c r="E171" s="2" t="str">
-        <f>IF(B171=0,D171,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F171" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3201.67</v>
       </c>
       <c r="G171" s="6">
@@ -11151,11 +11151,11 @@
         <v>1234.73</v>
       </c>
       <c r="J171" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1234.73</v>
       </c>
       <c r="K171" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L171" s="6">
@@ -11168,11 +11168,11 @@
         <v>71.271799999999999</v>
       </c>
       <c r="O171" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>71.271799999999999</v>
       </c>
       <c r="P171" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -11190,11 +11190,11 @@
         <v>5183.3100000000004</v>
       </c>
       <c r="E172" s="2" t="str">
-        <f>IF(B172=0,D172,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F172" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5183.3100000000004</v>
       </c>
       <c r="G172" s="6">
@@ -11207,11 +11207,11 @@
         <v>283.32299999999998</v>
       </c>
       <c r="J172" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K172" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>283.32299999999998</v>
       </c>
       <c r="L172" s="6">
@@ -11224,11 +11224,11 @@
         <v>214</v>
       </c>
       <c r="O172" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P172" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -11246,11 +11246,11 @@
         <v>3235.1</v>
       </c>
       <c r="E173" s="2" t="str">
-        <f>IF(B173=0,D173,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F173" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3235.1</v>
       </c>
       <c r="G173" s="6">
@@ -11263,11 +11263,11 @@
         <v>1341.16</v>
       </c>
       <c r="J173" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1341.16</v>
       </c>
       <c r="K173" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L173" s="6">
@@ -11280,11 +11280,11 @@
         <v>68.108599999999996</v>
       </c>
       <c r="O173" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P173" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>68.108599999999996</v>
       </c>
     </row>
@@ -11302,11 +11302,11 @@
         <v>5546.2</v>
       </c>
       <c r="E174" s="2" t="str">
-        <f>IF(B174=0,D174,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F174" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5546.2</v>
       </c>
       <c r="G174" s="6">
@@ -11319,11 +11319,11 @@
         <v>945.66800000000001</v>
       </c>
       <c r="J174" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K174" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>945.66800000000001</v>
       </c>
       <c r="L174" s="6">
@@ -11336,11 +11336,11 @@
         <v>214</v>
       </c>
       <c r="O174" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P174" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -11358,11 +11358,11 @@
         <v>3211.11</v>
       </c>
       <c r="E175" s="2" t="str">
-        <f>IF(B175=0,D175,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F175" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3211.11</v>
       </c>
       <c r="G175" s="6">
@@ -11375,11 +11375,11 @@
         <v>1255.6500000000001</v>
       </c>
       <c r="J175" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1255.6500000000001</v>
       </c>
       <c r="K175" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L175" s="6">
@@ -11392,11 +11392,11 @@
         <v>70.245599999999996</v>
       </c>
       <c r="O175" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>70.245599999999996</v>
       </c>
       <c r="P175" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -11414,11 +11414,11 @@
         <v>5381.87</v>
       </c>
       <c r="E176" s="2" t="str">
-        <f>IF(B176=0,D176,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F176" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5381.87</v>
       </c>
       <c r="G176" s="6">
@@ -11431,11 +11431,11 @@
         <v>493.57100000000003</v>
       </c>
       <c r="J176" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K176" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>493.57100000000003</v>
       </c>
       <c r="L176" s="6">
@@ -11448,11 +11448,11 @@
         <v>214</v>
       </c>
       <c r="O176" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.79769e+308</v>
       </c>
       <c r="P176" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -11470,11 +11470,11 @@
         <v>2317.2399999999998</v>
       </c>
       <c r="E177" s="2" t="str">
-        <f>IF(B177=0,D177,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F177" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2317.2399999999998</v>
       </c>
       <c r="G177" s="6">
@@ -11487,11 +11487,11 @@
         <v>733.83299999999997</v>
       </c>
       <c r="J177" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K177" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>733.83299999999997</v>
       </c>
       <c r="L177" s="6">
@@ -11504,11 +11504,11 @@
         <v>39.799199999999999</v>
       </c>
       <c r="O177" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P177" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>39.799199999999999</v>
       </c>
     </row>
@@ -11526,11 +11526,11 @@
         <v>1921.83</v>
       </c>
       <c r="E178" s="2" t="str">
-        <f>IF(B178=0,D178,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F178" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1921.83</v>
       </c>
       <c r="G178" s="6">
@@ -11543,11 +11543,11 @@
         <v>534.61</v>
       </c>
       <c r="J178" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K178" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>534.61</v>
       </c>
       <c r="L178" s="6">
@@ -11560,11 +11560,11 @@
         <v>38.026699999999998</v>
       </c>
       <c r="O178" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P178" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>38.026699999999998</v>
       </c>
     </row>
@@ -11582,11 +11582,11 @@
         <v>1356.37</v>
       </c>
       <c r="E179" s="2" t="str">
-        <f>IF(B179=0,D179,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F179" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1356.37</v>
       </c>
       <c r="G179" s="6">
@@ -11599,11 +11599,11 @@
         <v>479.18099999999998</v>
       </c>
       <c r="J179" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K179" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>479.18099999999998</v>
       </c>
       <c r="L179" s="6">
@@ -11616,11 +11616,11 @@
         <v>43.4893</v>
       </c>
       <c r="O179" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P179" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>43.4893</v>
       </c>
     </row>
@@ -11638,11 +11638,11 @@
         <v>2238.4299999999998</v>
       </c>
       <c r="E180" s="2" t="str">
-        <f>IF(B180=0,D180,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F180" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2238.4299999999998</v>
       </c>
       <c r="G180" s="6">
@@ -11655,11 +11655,11 @@
         <v>391.68400000000003</v>
       </c>
       <c r="J180" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K180" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>391.68400000000003</v>
       </c>
       <c r="L180" s="6">
@@ -11672,11 +11672,11 @@
         <v>41.297699999999999</v>
       </c>
       <c r="O180" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P180" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>41.297699999999999</v>
       </c>
     </row>
@@ -11694,11 +11694,11 @@
         <v>964.40300000000002</v>
       </c>
       <c r="E181" s="2" t="str">
-        <f>IF(B181=0,D181,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F181" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>964.40300000000002</v>
       </c>
       <c r="G181" s="6">
@@ -11711,11 +11711,11 @@
         <v>366.79</v>
       </c>
       <c r="J181" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K181" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>366.79</v>
       </c>
       <c r="L181" s="6">
@@ -11728,11 +11728,11 @@
         <v>32.805700000000002</v>
       </c>
       <c r="O181" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P181" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>32.805700000000002</v>
       </c>
     </row>
@@ -11750,11 +11750,11 @@
         <v>3773.89</v>
       </c>
       <c r="E182" s="2" t="str">
-        <f>IF(B182=0,D182,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F182" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3773.89</v>
       </c>
       <c r="G182" s="6">
@@ -11767,11 +11767,11 @@
         <v>519.17700000000002</v>
       </c>
       <c r="J182" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K182" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>519.17700000000002</v>
       </c>
       <c r="L182" s="6">
@@ -11784,11 +11784,11 @@
         <v>61.817500000000003</v>
       </c>
       <c r="O182" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P182" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>61.817500000000003</v>
       </c>
     </row>
@@ -11806,11 +11806,11 @@
         <v>5045.93</v>
       </c>
       <c r="E183" s="2">
-        <f>IF(B183=0,D183,"")</f>
+        <f t="shared" si="12"/>
         <v>5045.93</v>
       </c>
       <c r="F183" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G183" s="6">
@@ -11823,11 +11823,11 @@
         <v>503.14400000000001</v>
       </c>
       <c r="J183" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K183" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>503.14400000000001</v>
       </c>
       <c r="L183" s="6">
@@ -11840,11 +11840,11 @@
         <v>68.417900000000003</v>
       </c>
       <c r="O183" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P183" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>68.417900000000003</v>
       </c>
     </row>
@@ -11862,11 +11862,11 @@
         <v>1418.89</v>
       </c>
       <c r="E184" s="2" t="str">
-        <f>IF(B184=0,D184,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F184" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1418.89</v>
       </c>
       <c r="G184" s="6">
@@ -11879,11 +11879,11 @@
         <v>821.596</v>
       </c>
       <c r="J184" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K184" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>821.596</v>
       </c>
       <c r="L184" s="6">
@@ -11896,11 +11896,11 @@
         <v>39.9131</v>
       </c>
       <c r="O184" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P184" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>39.9131</v>
       </c>
     </row>
@@ -11918,11 +11918,11 @@
         <v>2353.87</v>
       </c>
       <c r="E185" s="2" t="str">
-        <f>IF(B185=0,D185,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F185" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2353.87</v>
       </c>
       <c r="G185" s="6">
@@ -11935,11 +11935,11 @@
         <v>1114.6500000000001</v>
       </c>
       <c r="J185" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K185" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1114.6500000000001</v>
       </c>
       <c r="L185" s="6">
@@ -11952,11 +11952,11 @@
         <v>43.056100000000001</v>
       </c>
       <c r="O185" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P185" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>43.056100000000001</v>
       </c>
     </row>
@@ -11974,11 +11974,11 @@
         <v>2020.5</v>
       </c>
       <c r="E186" s="2" t="str">
-        <f>IF(B186=0,D186,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F186" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2020.5</v>
       </c>
       <c r="G186" s="6">
@@ -11991,11 +11991,11 @@
         <v>1001.35</v>
       </c>
       <c r="J186" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K186" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1001.35</v>
       </c>
       <c r="L186" s="6">
@@ -12008,11 +12008,11 @@
         <v>35.5379</v>
       </c>
       <c r="O186" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P186" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>35.5379</v>
       </c>
     </row>
@@ -12030,11 +12030,11 @@
         <v>2244.14</v>
       </c>
       <c r="E187" s="2" t="str">
-        <f>IF(B187=0,D187,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F187" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2244.14</v>
       </c>
       <c r="G187" s="6">
@@ -12047,11 +12047,11 @@
         <v>1047.92</v>
       </c>
       <c r="J187" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K187" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1047.92</v>
       </c>
       <c r="L187" s="6">
@@ -12064,11 +12064,11 @@
         <v>42.439</v>
       </c>
       <c r="O187" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P187" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>42.439</v>
       </c>
     </row>
@@ -12086,11 +12086,11 @@
         <v>2297.34</v>
       </c>
       <c r="E188" s="2" t="str">
-        <f>IF(B188=0,D188,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F188" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2297.34</v>
       </c>
       <c r="G188" s="6">
@@ -12103,11 +12103,11 @@
         <v>1240.1099999999999</v>
       </c>
       <c r="J188" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K188" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1240.1099999999999</v>
       </c>
       <c r="L188" s="6">
@@ -12120,11 +12120,11 @@
         <v>44.497500000000002</v>
       </c>
       <c r="O188" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P188" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>44.497500000000002</v>
       </c>
     </row>
@@ -12142,11 +12142,11 @@
         <v>2826.61</v>
       </c>
       <c r="E189" s="2" t="str">
-        <f>IF(B189=0,D189,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F189" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2826.61</v>
       </c>
       <c r="G189" s="6">
@@ -12159,11 +12159,11 @@
         <v>519.43799999999999</v>
       </c>
       <c r="J189" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K189" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>519.43799999999999</v>
       </c>
       <c r="L189" s="6">
@@ -12176,11 +12176,11 @@
         <v>75.676699999999997</v>
       </c>
       <c r="O189" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P189" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>75.676699999999997</v>
       </c>
     </row>
@@ -12198,11 +12198,11 @@
         <v>2363.9299999999998</v>
       </c>
       <c r="E190" s="2" t="str">
-        <f>IF(B190=0,D190,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F190" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2363.9299999999998</v>
       </c>
       <c r="G190" s="6">
@@ -12215,11 +12215,11 @@
         <v>989.61800000000005</v>
       </c>
       <c r="J190" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K190" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>989.61800000000005</v>
       </c>
       <c r="L190" s="6">
@@ -12232,11 +12232,11 @@
         <v>39.332299999999996</v>
       </c>
       <c r="O190" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P190" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>39.332299999999996</v>
       </c>
     </row>
@@ -12254,11 +12254,11 @@
         <v>2341.63</v>
       </c>
       <c r="E191" s="2" t="str">
-        <f>IF(B191=0,D191,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F191" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2341.63</v>
       </c>
       <c r="G191" s="6">
@@ -12271,11 +12271,11 @@
         <v>796.36099999999999</v>
       </c>
       <c r="J191" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K191" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>796.36099999999999</v>
       </c>
       <c r="L191" s="6">
@@ -12288,11 +12288,11 @@
         <v>40.4559</v>
       </c>
       <c r="O191" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P191" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>40.4559</v>
       </c>
     </row>
@@ -12310,11 +12310,11 @@
         <v>2659.26</v>
       </c>
       <c r="E192" s="2" t="str">
-        <f>IF(B192=0,D192,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F192" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2659.26</v>
       </c>
       <c r="G192" s="6">
@@ -12327,11 +12327,11 @@
         <v>518.35400000000004</v>
       </c>
       <c r="J192" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K192" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>518.35400000000004</v>
       </c>
       <c r="L192" s="6">
@@ -12344,11 +12344,11 @@
         <v>44.000799999999998</v>
       </c>
       <c r="O192" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P192" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>44.000799999999998</v>
       </c>
     </row>
@@ -12366,11 +12366,11 @@
         <v>3491.4</v>
       </c>
       <c r="E193" s="2" t="str">
-        <f>IF(B193=0,D193,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F193" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3491.4</v>
       </c>
       <c r="G193" s="6">
@@ -12383,11 +12383,11 @@
         <v>484.27600000000001</v>
       </c>
       <c r="J193" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K193" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>484.27600000000001</v>
       </c>
       <c r="L193" s="6">
@@ -12400,11 +12400,11 @@
         <v>52.622399999999999</v>
       </c>
       <c r="O193" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P193" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>52.622399999999999</v>
       </c>
     </row>
@@ -12422,11 +12422,11 @@
         <v>4087.07</v>
       </c>
       <c r="E194" s="2" t="str">
-        <f>IF(B194=0,D194,"")</f>
+        <f t="shared" ref="E194:E257" si="18">IF(B194=0,D194,"")</f>
         <v/>
       </c>
       <c r="F194" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4087.07</v>
       </c>
       <c r="G194" s="6">
@@ -12439,11 +12439,11 @@
         <v>424.07299999999998</v>
       </c>
       <c r="J194" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K194" s="2">
-        <f t="shared" ref="K194:K210" si="15">IF(G194=1,I194,"")</f>
+        <f t="shared" ref="K194:K210" si="19">IF(G194=1,I194,"")</f>
         <v>424.07299999999998</v>
       </c>
       <c r="L194" s="6">
@@ -12456,11 +12456,11 @@
         <v>58.930100000000003</v>
       </c>
       <c r="O194" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P194" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>58.930100000000003</v>
       </c>
     </row>
@@ -12478,11 +12478,11 @@
         <v>589.61500000000001</v>
       </c>
       <c r="E195" s="2" t="str">
-        <f>IF(B195=0,D195,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F195" s="2">
-        <f t="shared" ref="F195:F211" si="16">IF(B195=1,D195,"")</f>
+        <f t="shared" ref="F195:F211" si="20">IF(B195=1,D195,"")</f>
         <v>589.61500000000001</v>
       </c>
       <c r="G195" s="6">
@@ -12495,11 +12495,11 @@
         <v>416.52300000000002</v>
       </c>
       <c r="J195" s="2" t="str">
-        <f t="shared" ref="J195:J211" si="17">IF(G195=0,I195,"")</f>
+        <f t="shared" ref="J195:J211" si="21">IF(G195=0,I195,"")</f>
         <v/>
       </c>
       <c r="K195" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>416.52300000000002</v>
       </c>
       <c r="L195" s="6">
@@ -12512,11 +12512,11 @@
         <v>26.247</v>
       </c>
       <c r="O195" s="2" t="str">
-        <f>IF(L195=0,N195,"")</f>
+        <f t="shared" ref="O195:O210" si="22">IF(L195=0,N195,"")</f>
         <v/>
       </c>
       <c r="P195" s="2">
-        <f t="shared" ref="P195:P211" si="18">IF(L195=1,N195,"")</f>
+        <f t="shared" ref="P195:P211" si="23">IF(L195=1,N195,"")</f>
         <v>26.247</v>
       </c>
     </row>
@@ -12534,11 +12534,11 @@
         <v>1593.44</v>
       </c>
       <c r="E196" s="2" t="str">
-        <f>IF(B196=0,D196,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F196" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1593.44</v>
       </c>
       <c r="G196" s="6">
@@ -12551,11 +12551,11 @@
         <v>137.5</v>
       </c>
       <c r="J196" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K196" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>137.5</v>
       </c>
       <c r="L196" s="6">
@@ -12568,11 +12568,11 @@
         <v>31.866800000000001</v>
       </c>
       <c r="O196" s="2" t="str">
-        <f>IF(L196=0,N196,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P196" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>31.866800000000001</v>
       </c>
     </row>
@@ -12590,11 +12590,11 @@
         <v>1833.65</v>
       </c>
       <c r="E197" s="2" t="str">
-        <f>IF(B197=0,D197,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F197" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1833.65</v>
       </c>
       <c r="G197" s="6">
@@ -12607,11 +12607,11 @@
         <v>286.14100000000002</v>
       </c>
       <c r="J197" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K197" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>286.14100000000002</v>
       </c>
       <c r="L197" s="6">
@@ -12624,11 +12624,11 @@
         <v>45.263399999999997</v>
       </c>
       <c r="O197" s="2" t="str">
-        <f>IF(L197=0,N197,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P197" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>45.263399999999997</v>
       </c>
     </row>
@@ -12646,11 +12646,11 @@
         <v>1617.13</v>
       </c>
       <c r="E198" s="2" t="str">
-        <f>IF(B198=0,D198,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F198" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1617.13</v>
       </c>
       <c r="G198" s="6">
@@ -12663,11 +12663,11 @@
         <v>564.33699999999999</v>
       </c>
       <c r="J198" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K198" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>564.33699999999999</v>
       </c>
       <c r="L198" s="6">
@@ -12680,11 +12680,11 @@
         <v>33.853000000000002</v>
       </c>
       <c r="O198" s="2" t="str">
-        <f>IF(L198=0,N198,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P198" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>33.853000000000002</v>
       </c>
     </row>
@@ -12702,11 +12702,11 @@
         <v>1178.4000000000001</v>
       </c>
       <c r="E199" s="2" t="str">
-        <f>IF(B199=0,D199,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F199" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1178.4000000000001</v>
       </c>
       <c r="G199" s="6">
@@ -12719,11 +12719,11 @@
         <v>867.55200000000002</v>
       </c>
       <c r="J199" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K199" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>867.55200000000002</v>
       </c>
       <c r="L199" s="6">
@@ -12736,11 +12736,11 @@
         <v>37.175400000000003</v>
       </c>
       <c r="O199" s="2" t="str">
-        <f>IF(L199=0,N199,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P199" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>37.175400000000003</v>
       </c>
     </row>
@@ -12758,11 +12758,11 @@
         <v>695.88</v>
       </c>
       <c r="E200" s="2" t="str">
-        <f>IF(B200=0,D200,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F200" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>695.88</v>
       </c>
       <c r="G200" s="6">
@@ -12775,11 +12775,11 @@
         <v>1017.99</v>
       </c>
       <c r="J200" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K200" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1017.99</v>
       </c>
       <c r="L200" s="6">
@@ -12792,11 +12792,11 @@
         <v>29.360099999999999</v>
       </c>
       <c r="O200" s="2" t="str">
-        <f>IF(L200=0,N200,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P200" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>29.360099999999999</v>
       </c>
     </row>
@@ -12814,11 +12814,11 @@
         <v>1166.3499999999999</v>
       </c>
       <c r="E201" s="2" t="str">
-        <f>IF(B201=0,D201,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F201" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1166.3499999999999</v>
       </c>
       <c r="G201" s="6">
@@ -12831,11 +12831,11 @@
         <v>579.04399999999998</v>
       </c>
       <c r="J201" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K201" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>579.04399999999998</v>
       </c>
       <c r="L201" s="6">
@@ -12848,11 +12848,11 @@
         <v>30.217400000000001</v>
       </c>
       <c r="O201" s="2" t="str">
-        <f>IF(L201=0,N201,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P201" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>30.217400000000001</v>
       </c>
     </row>
@@ -12870,11 +12870,11 @@
         <v>1884.26</v>
       </c>
       <c r="E202" s="2" t="str">
-        <f>IF(B202=0,D202,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F202" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1884.26</v>
       </c>
       <c r="G202" s="6">
@@ -12887,11 +12887,11 @@
         <v>556.61300000000006</v>
       </c>
       <c r="J202" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K202" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>556.61300000000006</v>
       </c>
       <c r="L202" s="6">
@@ -12904,11 +12904,11 @@
         <v>38.733899999999998</v>
       </c>
       <c r="O202" s="2" t="str">
-        <f>IF(L202=0,N202,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P202" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>38.733899999999998</v>
       </c>
     </row>
@@ -12926,11 +12926,11 @@
         <v>1118.25</v>
       </c>
       <c r="E203" s="2" t="str">
-        <f>IF(B203=0,D203,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F203" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1118.25</v>
       </c>
       <c r="G203" s="6">
@@ -12943,11 +12943,11 @@
         <v>952.10799999999995</v>
       </c>
       <c r="J203" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K203" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>952.10799999999995</v>
       </c>
       <c r="L203" s="6">
@@ -12960,11 +12960,11 @@
         <v>35.500399999999999</v>
       </c>
       <c r="O203" s="2" t="str">
-        <f>IF(L203=0,N203,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P203" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>35.500399999999999</v>
       </c>
     </row>
@@ -12982,11 +12982,11 @@
         <v>360.73500000000001</v>
       </c>
       <c r="E204" s="2" t="str">
-        <f>IF(B204=0,D204,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F204" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>360.73500000000001</v>
       </c>
       <c r="G204" s="6">
@@ -12999,11 +12999,11 @@
         <v>985.85599999999999</v>
       </c>
       <c r="J204" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K204" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>985.85599999999999</v>
       </c>
       <c r="L204" s="6">
@@ -13016,11 +13016,11 @@
         <v>30.0169</v>
       </c>
       <c r="O204" s="2" t="str">
-        <f>IF(L204=0,N204,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P204" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>30.0169</v>
       </c>
     </row>
@@ -13038,11 +13038,11 @@
         <v>2004.77</v>
       </c>
       <c r="E205" s="2" t="str">
-        <f>IF(B205=0,D205,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F205" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2004.77</v>
       </c>
       <c r="G205" s="6">
@@ -13055,11 +13055,11 @@
         <v>948.55899999999997</v>
       </c>
       <c r="J205" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K205" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>948.55899999999997</v>
       </c>
       <c r="L205" s="6">
@@ -13072,11 +13072,11 @@
         <v>34.505800000000001</v>
       </c>
       <c r="O205" s="2" t="str">
-        <f>IF(L205=0,N205,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P205" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>34.505800000000001</v>
       </c>
     </row>
@@ -13094,11 +13094,11 @@
         <v>2063.69</v>
       </c>
       <c r="E206" s="2" t="str">
-        <f>IF(B206=0,D206,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F206" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2063.69</v>
       </c>
       <c r="G206" s="6">
@@ -13111,11 +13111,11 @@
         <v>1045.08</v>
       </c>
       <c r="J206" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K206" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1045.08</v>
       </c>
       <c r="L206" s="6">
@@ -13128,11 +13128,11 @@
         <v>38.1845</v>
       </c>
       <c r="O206" s="2" t="str">
-        <f>IF(L206=0,N206,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P206" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>38.1845</v>
       </c>
     </row>
@@ -13150,11 +13150,11 @@
         <v>3114.91</v>
       </c>
       <c r="E207" s="2" t="str">
-        <f>IF(B207=0,D207,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F207" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3114.91</v>
       </c>
       <c r="G207" s="6">
@@ -13167,11 +13167,11 @@
         <v>996.77300000000002</v>
       </c>
       <c r="J207" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K207" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>996.77300000000002</v>
       </c>
       <c r="L207" s="6">
@@ -13184,11 +13184,11 @@
         <v>42.305300000000003</v>
       </c>
       <c r="O207" s="2" t="str">
-        <f>IF(L207=0,N207,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P207" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>42.305300000000003</v>
       </c>
     </row>
@@ -13206,11 +13206,11 @@
         <v>2662.09</v>
       </c>
       <c r="E208" s="2" t="str">
-        <f>IF(B208=0,D208,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F208" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2662.09</v>
       </c>
       <c r="G208" s="6">
@@ -13223,11 +13223,11 @@
         <v>1100.81</v>
       </c>
       <c r="J208" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K208" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1100.81</v>
       </c>
       <c r="L208" s="6">
@@ -13240,11 +13240,11 @@
         <v>35.444600000000001</v>
       </c>
       <c r="O208" s="2" t="str">
-        <f>IF(L208=0,N208,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P208" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>35.444600000000001</v>
       </c>
     </row>
@@ -13262,11 +13262,11 @@
         <v>1984.97</v>
       </c>
       <c r="E209" s="2" t="str">
-        <f>IF(B209=0,D209,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F209" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1984.97</v>
       </c>
       <c r="G209" s="6">
@@ -13279,11 +13279,11 @@
         <v>1102.25</v>
       </c>
       <c r="J209" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K209" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1102.25</v>
       </c>
       <c r="L209" s="6">
@@ -13296,11 +13296,11 @@
         <v>53.295400000000001</v>
       </c>
       <c r="O209" s="2" t="str">
-        <f>IF(L209=0,N209,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P209" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>53.295400000000001</v>
       </c>
     </row>
@@ -13318,11 +13318,11 @@
         <v>1504.56</v>
       </c>
       <c r="E210" s="2" t="str">
-        <f>IF(B210=0,D210,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F210" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1504.56</v>
       </c>
       <c r="G210" s="6">
@@ -13335,11 +13335,11 @@
         <v>1203.51</v>
       </c>
       <c r="J210" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K210" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1203.51</v>
       </c>
       <c r="L210" s="6">
@@ -13352,11 +13352,11 @@
         <v>49.157200000000003</v>
       </c>
       <c r="O210" s="2" t="str">
-        <f>IF(L210=0,N210,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P210" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>49.157200000000003</v>
       </c>
     </row>
@@ -13374,11 +13374,11 @@
         <v>1653.27</v>
       </c>
       <c r="E211" s="2" t="str">
-        <f>IF(B211=0,D211,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F211" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1653.27</v>
       </c>
       <c r="G211" s="6">
@@ -13391,7 +13391,7 @@
         <v>746.73699999999997</v>
       </c>
       <c r="J211" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K211">
@@ -13408,7 +13408,7 @@
         <v/>
       </c>
       <c r="P211" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
